--- a/dev/moths/Tutoring Center Report TARGET.xlsx
+++ b/dev/moths/Tutoring Center Report TARGET.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="AdvisorTrac Summary" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="_GenDateRanges" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="_GenDateRanges" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="LookupReason" vbProcedure="false">#REF!</definedName>
@@ -29,22 +29,22 @@
     <t xml:space="preserve">AdvisorTrac summaries by week</t>
   </si>
   <si>
-    <t xml:space="preserve">Chemistry</t>
+    <t xml:space="preserve">Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">CIS/Programming</t>
+    <t xml:space="preserve">ComputerInfo Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Languages</t>
   </si>
   <si>
-    <t xml:space="preserve">MS Office</t>
+    <t xml:space="preserve">Microsoft Office</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
+    <t xml:space="preserve">Other Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Course Tutoring</t>
+    <t xml:space="preserve">Cybersecurity</t>
   </si>
   <si>
     <t xml:space="preserve">Physics</t>
@@ -272,7 +272,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
-        <bgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -284,7 +284,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -296,13 +296,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
-        <bgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,7 +421,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +484,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -691,7 +699,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -704,14 +712,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFE7E6E6"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFE6E6E6"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE96F6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -726,7 +734,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -737,12 +745,12 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -869,7 +877,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q97" activeCellId="0" sqref="Q97"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,7 +912,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="41" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1168,27 +1176,36 @@
       <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
@@ -1201,26 +1218,35 @@
         <v>45675</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="19"/>
-      <c r="AN8" s="20"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="21"/>
+      <c r="AN8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
@@ -1233,26 +1259,35 @@
         <v>45682</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="19"/>
-      <c r="AN9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="21"/>
+      <c r="AN9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
@@ -1265,26 +1300,35 @@
         <v>45689</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="19"/>
-      <c r="AN10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="21"/>
+      <c r="AN10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
@@ -1297,26 +1341,35 @@
         <v>45696</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="19"/>
-      <c r="AN11" s="20"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="21"/>
+      <c r="AN11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
@@ -1329,26 +1382,35 @@
         <v>45703</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="19"/>
-      <c r="AN12" s="20"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="21"/>
+      <c r="AN12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
@@ -1361,26 +1423,35 @@
         <v>45710</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="19"/>
-      <c r="AN13" s="20"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="21"/>
+      <c r="AN13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
@@ -1393,26 +1464,35 @@
         <v>45717</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="19"/>
-      <c r="AN14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="21"/>
+      <c r="AN14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -1425,26 +1505,35 @@
         <v>45724</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="19"/>
-      <c r="AN15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="21"/>
+      <c r="AN15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -1457,26 +1546,35 @@
         <v>45731</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="19"/>
-      <c r="AN16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="21"/>
+      <c r="AN16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -1489,26 +1587,35 @@
         <v>45738</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="19"/>
-      <c r="AN17" s="20"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="21"/>
+      <c r="AN17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
@@ -1521,26 +1628,35 @@
         <v>45745</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="19"/>
-      <c r="AN18" s="20"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="21"/>
+      <c r="AN18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
@@ -1553,26 +1669,35 @@
         <v>45752</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="19"/>
-      <c r="AN19" s="20"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="21"/>
+      <c r="AN19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
@@ -1585,26 +1710,35 @@
         <v>45759</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="19"/>
-      <c r="AN20" s="20"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="21"/>
+      <c r="AN20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
@@ -1617,26 +1751,35 @@
         <v>45766</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="19"/>
-      <c r="AN21" s="20"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="21"/>
+      <c r="AN21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
@@ -1649,26 +1792,35 @@
         <v>45773</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="19"/>
-      <c r="AN22" s="20"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="21"/>
+      <c r="AN22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
@@ -1681,26 +1833,35 @@
         <v>45780</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="19"/>
-      <c r="AN23" s="20"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="21"/>
+      <c r="AN23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
@@ -1713,26 +1874,35 @@
         <v>45787</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="19"/>
-      <c r="AN24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="21"/>
+      <c r="AN24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
@@ -1745,26 +1915,35 @@
         <v>45794</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="19"/>
-      <c r="AN25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="21"/>
+      <c r="AN25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
@@ -1777,157 +1956,166 @@
         <v>45801</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="23"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26" t="n">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28" t="n">
         <f aca="false">SUM(E7:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="27" t="n">
+      <c r="F27" s="29" t="n">
         <f aca="false">SUM(F7:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="26" t="n">
+      <c r="H27" s="28" t="n">
         <f aca="false">SUM(H7:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="27" t="n">
+      <c r="I27" s="29" t="n">
         <f aca="false">SUM(I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="26" t="n">
+      <c r="K27" s="28" t="n">
         <f aca="false">SUM(K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="27" t="n">
+      <c r="L27" s="29" t="n">
         <f aca="false">SUM(L7:L26)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="26" t="n">
+      <c r="N27" s="28" t="n">
         <f aca="false">SUM(N7:N26)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="27" t="n">
+      <c r="O27" s="29" t="n">
         <f aca="false">SUM(O7:O26)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="26" t="n">
+      <c r="Q27" s="28" t="n">
         <f aca="false">SUM(Q7:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="27" t="n">
+      <c r="R27" s="29" t="n">
         <f aca="false">SUM(R7:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="26" t="n">
+      <c r="T27" s="28" t="n">
         <f aca="false">SUM(T7:T26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="27" t="n">
+      <c r="U27" s="29" t="n">
         <f aca="false">SUM(U7:U26)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="28" t="s">
+      <c r="V27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="26" t="n">
+      <c r="W27" s="28" t="n">
         <f aca="false">SUM(W7:W26)</f>
         <v>0</v>
       </c>
-      <c r="X27" s="27" t="n">
+      <c r="X27" s="29" t="n">
         <f aca="false">SUM(X7:X26)</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="28" t="s">
+      <c r="Y27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="26" t="n">
+      <c r="Z27" s="28" t="n">
         <f aca="false">SUM(Z7:Z26)</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="27" t="n">
+      <c r="AA27" s="29" t="n">
         <f aca="false">SUM(AA7:AA26)</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="28" t="s">
+      <c r="AB27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AC27" s="26" t="n">
+      <c r="AC27" s="28" t="n">
         <f aca="false">SUM(AC7:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="27" t="n">
+      <c r="AD27" s="29" t="n">
         <f aca="false">SUM(AD7:AD26)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="28" t="s">
+      <c r="AE27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AF27" s="26" t="n">
+      <c r="AF27" s="28" t="n">
         <f aca="false">SUM(AF7:AF26)</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="27" t="n">
+      <c r="AG27" s="29" t="n">
         <f aca="false">SUM(AG7:AG26)</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="28" t="s">
+      <c r="AH27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AI27" s="26" t="n">
+      <c r="AI27" s="28" t="n">
         <f aca="false">SUM(AI7:AI26)</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="27" t="n">
+      <c r="AJ27" s="29" t="n">
         <f aca="false">SUM(AJ7:AJ26)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="28" t="s">
+      <c r="AK27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AL27" s="29"/>
+      <c r="AL27" s="31"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="11"/>
     </row>
@@ -1940,7 +2128,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
@@ -1971,41 +2159,40 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="29"/>
+      <c r="AL28" s="31"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32" t="n">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34" t="n">
         <f aca="false">SUM(E27,H27,K27,N27,Q27,T27,W27,Z27,AC27,AF27,AI27)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="33" t="n">
+      <c r="F29" s="35" t="n">
         <f aca="false">SUM(F27,I27,L27,O27,R27,U27,X27,AA27,AD27,AG27,AJ27)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="38"/>
+    </row>
     <row r="33" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>27</v>
@@ -2054,493 +2241,492 @@
       <c r="A34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B34" s="38" t="n">
+      <c r="B34" s="40" t="n">
         <v>45663</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="40" t="n">
         <v>45668</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="38" t="n">
+      <c r="B35" s="40" t="n">
         <v>45670</v>
       </c>
-      <c r="C35" s="38" t="n">
+      <c r="C35" s="40" t="n">
         <v>45675</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="AL35" s="19"/>
-      <c r="AN35" s="20"/>
+      <c r="AL35" s="21"/>
+      <c r="AN35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="38" t="n">
+      <c r="B36" s="40" t="n">
         <v>45677</v>
       </c>
-      <c r="C36" s="38" t="n">
+      <c r="C36" s="40" t="n">
         <v>45682</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="AL36" s="19"/>
-      <c r="AN36" s="20"/>
+      <c r="AL36" s="21"/>
+      <c r="AN36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="38" t="n">
+      <c r="B37" s="40" t="n">
         <v>45684</v>
       </c>
-      <c r="C37" s="38" t="n">
+      <c r="C37" s="40" t="n">
         <v>45689</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="AL37" s="19"/>
-      <c r="AN37" s="20"/>
+      <c r="AL37" s="21"/>
+      <c r="AN37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="38" t="n">
+      <c r="B38" s="40" t="n">
         <v>45691</v>
       </c>
-      <c r="C38" s="38" t="n">
+      <c r="C38" s="40" t="n">
         <v>45696</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="AL38" s="19"/>
-      <c r="AN38" s="20"/>
+      <c r="AL38" s="21"/>
+      <c r="AN38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="38" t="n">
+      <c r="B39" s="40" t="n">
         <v>45698</v>
       </c>
-      <c r="C39" s="38" t="n">
+      <c r="C39" s="40" t="n">
         <v>45703</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="AL39" s="19"/>
-      <c r="AN39" s="20"/>
+      <c r="AL39" s="21"/>
+      <c r="AN39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B40" s="38" t="n">
+      <c r="B40" s="40" t="n">
         <v>45705</v>
       </c>
-      <c r="C40" s="38" t="n">
+      <c r="C40" s="40" t="n">
         <v>45710</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="AL40" s="19"/>
-      <c r="AN40" s="20"/>
+      <c r="AL40" s="21"/>
+      <c r="AN40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="38" t="n">
+      <c r="B41" s="40" t="n">
         <v>45712</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="40" t="n">
         <v>45717</v>
       </c>
       <c r="D41" s="15"/>
-      <c r="AL41" s="19"/>
-      <c r="AN41" s="20"/>
+      <c r="AL41" s="21"/>
+      <c r="AN41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B42" s="38" t="n">
+      <c r="B42" s="40" t="n">
         <v>45719</v>
       </c>
-      <c r="C42" s="38" t="n">
+      <c r="C42" s="40" t="n">
         <v>45724</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="AL42" s="19"/>
-      <c r="AN42" s="20"/>
+      <c r="AL42" s="21"/>
+      <c r="AN42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B43" s="38" t="n">
+      <c r="B43" s="40" t="n">
         <v>45726</v>
       </c>
-      <c r="C43" s="38" t="n">
+      <c r="C43" s="40" t="n">
         <v>45731</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="AL43" s="19"/>
-      <c r="AN43" s="20"/>
+      <c r="AL43" s="21"/>
+      <c r="AN43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B44" s="38" t="n">
+      <c r="B44" s="40" t="n">
         <v>45733</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C44" s="40" t="n">
         <v>45738</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="AL44" s="19"/>
-      <c r="AN44" s="20"/>
+      <c r="AL44" s="21"/>
+      <c r="AN44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B45" s="38" t="n">
+      <c r="B45" s="40" t="n">
         <v>45740</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="40" t="n">
         <v>45745</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="AL45" s="19"/>
-      <c r="AN45" s="20"/>
+      <c r="AL45" s="21"/>
+      <c r="AN45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B46" s="38" t="n">
+      <c r="B46" s="40" t="n">
         <v>45747</v>
       </c>
-      <c r="C46" s="38" t="n">
+      <c r="C46" s="40" t="n">
         <v>45752</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="AL46" s="19"/>
-      <c r="AN46" s="20"/>
+      <c r="AL46" s="21"/>
+      <c r="AN46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B47" s="38" t="n">
+      <c r="B47" s="40" t="n">
         <v>45754</v>
       </c>
-      <c r="C47" s="38" t="n">
+      <c r="C47" s="40" t="n">
         <v>45759</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="AL47" s="19"/>
-      <c r="AN47" s="20"/>
+      <c r="AL47" s="21"/>
+      <c r="AN47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B48" s="38" t="n">
+      <c r="B48" s="40" t="n">
         <v>45761</v>
       </c>
-      <c r="C48" s="38" t="n">
+      <c r="C48" s="40" t="n">
         <v>45766</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="AL48" s="19"/>
-      <c r="AN48" s="20"/>
+      <c r="AL48" s="21"/>
+      <c r="AN48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B49" s="38" t="n">
+      <c r="B49" s="40" t="n">
         <v>45768</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="40" t="n">
         <v>45773</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="AL49" s="19"/>
-      <c r="AN49" s="20"/>
+      <c r="AL49" s="21"/>
+      <c r="AN49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B50" s="38" t="n">
+      <c r="B50" s="40" t="n">
         <v>45775</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="40" t="n">
         <v>45780</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="AL50" s="19"/>
-      <c r="AN50" s="20"/>
+      <c r="AL50" s="21"/>
+      <c r="AN50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B51" s="38" t="n">
+      <c r="B51" s="40" t="n">
         <v>45782</v>
       </c>
-      <c r="C51" s="38" t="n">
+      <c r="C51" s="40" t="n">
         <v>45787</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="AL51" s="19"/>
-      <c r="AN51" s="20"/>
+      <c r="AL51" s="21"/>
+      <c r="AN51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B52" s="38" t="n">
+      <c r="B52" s="40" t="n">
         <v>45789</v>
       </c>
-      <c r="C52" s="38" t="n">
+      <c r="C52" s="40" t="n">
         <v>45794</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="AL52" s="19"/>
-      <c r="AN52" s="20"/>
+      <c r="AL52" s="21"/>
+      <c r="AN52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B53" s="38" t="n">
+      <c r="B53" s="40" t="n">
         <v>45796</v>
       </c>
-      <c r="C53" s="38" t="n">
+      <c r="C53" s="40" t="n">
         <v>45801</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41" t="n">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43" t="n">
         <f aca="false">SUM(E34:E53)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="42" t="n">
+      <c r="F54" s="44" t="n">
         <f aca="false">SUM(F34:F53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="41" t="n">
+      <c r="H54" s="43" t="n">
         <f aca="false">SUM(H34:H53)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="42" t="n">
+      <c r="I54" s="44" t="n">
         <f aca="false">SUM(I34:I53)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="43" t="s">
+      <c r="J54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="41" t="n">
+      <c r="K54" s="43" t="n">
         <f aca="false">SUM(K34:K53)</f>
         <v>0</v>
       </c>
-      <c r="L54" s="42" t="n">
+      <c r="L54" s="44" t="n">
         <f aca="false">SUM(L34:L53)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="43" t="s">
+      <c r="M54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="41" t="n">
+      <c r="N54" s="43" t="n">
         <f aca="false">SUM(N34:N53)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="42" t="n">
+      <c r="O54" s="44" t="n">
         <f aca="false">SUM(O34:O53)</f>
         <v>0</v>
       </c>
-      <c r="P54" s="43" t="s">
+      <c r="P54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q54" s="41" t="n">
+      <c r="Q54" s="43" t="n">
         <f aca="false">SUM(Q34:Q53)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="42" t="n">
+      <c r="R54" s="44" t="n">
         <f aca="false">SUM(R34:R53)</f>
         <v>0</v>
       </c>
-      <c r="S54" s="43" t="s">
+      <c r="S54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="41" t="n">
+      <c r="T54" s="43" t="n">
         <f aca="false">SUM(T34:T53)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="42" t="n">
+      <c r="U54" s="44" t="n">
         <f aca="false">SUM(U34:U53)</f>
         <v>0</v>
       </c>
-      <c r="V54" s="43" t="s">
+      <c r="V54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="W54" s="41" t="n">
+      <c r="W54" s="43" t="n">
         <f aca="false">SUM(W34:W53)</f>
         <v>0</v>
       </c>
-      <c r="X54" s="42" t="n">
+      <c r="X54" s="44" t="n">
         <f aca="false">SUM(X34:X53)</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="43" t="s">
+      <c r="Y54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Z54" s="41" t="n">
+      <c r="Z54" s="43" t="n">
         <f aca="false">SUM(Z34:Z53)</f>
         <v>0</v>
       </c>
-      <c r="AA54" s="42" t="n">
+      <c r="AA54" s="44" t="n">
         <f aca="false">SUM(AA34:AA53)</f>
         <v>0</v>
       </c>
-      <c r="AB54" s="43" t="s">
+      <c r="AB54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AC54" s="41" t="n">
+      <c r="AC54" s="43" t="n">
         <f aca="false">SUM(AC34:AC53)</f>
         <v>0</v>
       </c>
-      <c r="AD54" s="42" t="n">
+      <c r="AD54" s="44" t="n">
         <f aca="false">SUM(AD34:AD53)</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="43" t="s">
+      <c r="AE54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AF54" s="41" t="n">
+      <c r="AF54" s="43" t="n">
         <f aca="false">SUM(AF34:AF53)</f>
         <v>0</v>
       </c>
-      <c r="AG54" s="42" t="n">
+      <c r="AG54" s="44" t="n">
         <f aca="false">SUM(AG34:AG53)</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="43" t="s">
+      <c r="AH54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AI54" s="41" t="n">
+      <c r="AI54" s="43" t="n">
         <f aca="false">SUM(AI34:AI53)</f>
         <v>0</v>
       </c>
-      <c r="AJ54" s="42" t="n">
+      <c r="AJ54" s="44" t="n">
         <f aca="false">SUM(AJ34:AJ53)</f>
         <v>0</v>
       </c>
-      <c r="AK54" s="43" t="s">
+      <c r="AK54" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AL54" s="44"/>
+      <c r="AL54" s="46"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="46"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="48"/>
-      <c r="AI55" s="48"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="48"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="49"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="50"/>
       <c r="AL55" s="11"/>
       <c r="AM55" s="12"/>
       <c r="AN55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51" t="n">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53" t="n">
         <f aca="false">SUM(E54,H54,K54,N54,Q54,T54,W54,Z54,AC54,AF54,AI54)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="52" t="n">
+      <c r="F56" s="54" t="n">
         <f aca="false">SUM(F54,I54,L54,O54,R54,U54,X54,AA54,AD54,AG54,AJ54)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="53" t="s">
+      <c r="G56" s="55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="54" t="s">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="57"/>
+    </row>
     <row r="60" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>30</v>
@@ -2589,853 +2775,1032 @@
       <c r="A61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B61" s="38" t="n">
+      <c r="B61" s="40" t="n">
         <v>45663</v>
       </c>
-      <c r="C61" s="38" t="n">
+      <c r="C61" s="40" t="n">
         <v>45668</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="8"/>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="16"/>
-      <c r="AM61" s="17"/>
-      <c r="AN61" s="18"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="16"/>
+      <c r="AL61" s="18"/>
+      <c r="AM61" s="19"/>
+      <c r="AN61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="38" t="n">
+      <c r="B62" s="40" t="n">
         <v>45670</v>
       </c>
-      <c r="C62" s="38" t="n">
+      <c r="C62" s="40" t="n">
         <v>45675</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="7"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
-      <c r="AD62" s="8"/>
-      <c r="AE62" s="7"/>
-      <c r="AF62" s="7"/>
-      <c r="AG62" s="8"/>
-      <c r="AH62" s="7"/>
-      <c r="AI62" s="7"/>
-      <c r="AJ62" s="8"/>
-      <c r="AK62" s="7"/>
-      <c r="AL62" s="19"/>
-      <c r="AN62" s="20"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="16"/>
+      <c r="AL62" s="21"/>
+      <c r="AN62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="38" t="n">
+      <c r="B63" s="40" t="n">
         <v>45677</v>
       </c>
-      <c r="C63" s="38" t="n">
+      <c r="C63" s="40" t="n">
         <v>45682</v>
       </c>
       <c r="D63" s="15"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="7"/>
-      <c r="AJ63" s="8"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="19"/>
-      <c r="AN63" s="20"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="21"/>
+      <c r="AN63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="38" t="n">
+      <c r="B64" s="40" t="n">
         <v>45684</v>
       </c>
-      <c r="C64" s="38" t="n">
+      <c r="C64" s="40" t="n">
         <v>45689</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="7"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="7"/>
-      <c r="AI64" s="7"/>
-      <c r="AJ64" s="8"/>
-      <c r="AK64" s="7"/>
-      <c r="AL64" s="19"/>
-      <c r="AN64" s="20"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="21"/>
+      <c r="AN64" s="22"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B65" s="38" t="n">
+      <c r="B65" s="40" t="n">
         <v>45691</v>
       </c>
-      <c r="C65" s="38" t="n">
+      <c r="C65" s="40" t="n">
         <v>45696</v>
       </c>
       <c r="D65" s="15"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="7"/>
-      <c r="AI65" s="7"/>
-      <c r="AJ65" s="8"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="19"/>
-      <c r="AN65" s="20"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="16"/>
+      <c r="AL65" s="21"/>
+      <c r="AN65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="38" t="n">
+      <c r="B66" s="40" t="n">
         <v>45698</v>
       </c>
-      <c r="C66" s="38" t="n">
+      <c r="C66" s="40" t="n">
         <v>45703</v>
       </c>
       <c r="D66" s="15"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="8"/>
-      <c r="AH66" s="7"/>
-      <c r="AI66" s="7"/>
-      <c r="AJ66" s="8"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="19"/>
-      <c r="AN66" s="20"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="21"/>
+      <c r="AN66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B67" s="38" t="n">
+      <c r="B67" s="40" t="n">
         <v>45705</v>
       </c>
-      <c r="C67" s="38" t="n">
+      <c r="C67" s="40" t="n">
         <v>45710</v>
       </c>
       <c r="D67" s="15"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="7"/>
-      <c r="AI67" s="7"/>
-      <c r="AJ67" s="8"/>
-      <c r="AK67" s="7"/>
-      <c r="AL67" s="19"/>
-      <c r="AN67" s="20"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="16"/>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="16"/>
+      <c r="AL67" s="21"/>
+      <c r="AN67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B68" s="38" t="n">
+      <c r="B68" s="40" t="n">
         <v>45712</v>
       </c>
-      <c r="C68" s="38" t="n">
+      <c r="C68" s="40" t="n">
         <v>45717</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="7"/>
-      <c r="AJ68" s="8"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="19"/>
-      <c r="AN68" s="20"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="16"/>
+      <c r="AL68" s="21"/>
+      <c r="AN68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B69" s="38" t="n">
+      <c r="B69" s="40" t="n">
         <v>45719</v>
       </c>
-      <c r="C69" s="38" t="n">
+      <c r="C69" s="40" t="n">
         <v>45724</v>
       </c>
       <c r="D69" s="15"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="8"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="8"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="19"/>
-      <c r="AN69" s="20"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="16"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="21"/>
+      <c r="AN69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B70" s="38" t="n">
+      <c r="B70" s="40" t="n">
         <v>45726</v>
       </c>
-      <c r="C70" s="38" t="n">
+      <c r="C70" s="40" t="n">
         <v>45731</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="7"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="7"/>
-      <c r="AC70" s="7"/>
-      <c r="AD70" s="8"/>
-      <c r="AE70" s="7"/>
-      <c r="AF70" s="7"/>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="7"/>
-      <c r="AI70" s="7"/>
-      <c r="AJ70" s="8"/>
-      <c r="AK70" s="7"/>
-      <c r="AL70" s="19"/>
-      <c r="AN70" s="20"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="16"/>
+      <c r="AF70" s="16"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="16"/>
+      <c r="AI70" s="16"/>
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="16"/>
+      <c r="AL70" s="21"/>
+      <c r="AN70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B71" s="38" t="n">
+      <c r="B71" s="40" t="n">
         <v>45733</v>
       </c>
-      <c r="C71" s="38" t="n">
+      <c r="C71" s="40" t="n">
         <v>45738</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="7"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="8"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
-      <c r="AG71" s="8"/>
-      <c r="AH71" s="7"/>
-      <c r="AI71" s="7"/>
-      <c r="AJ71" s="8"/>
-      <c r="AK71" s="7"/>
-      <c r="AL71" s="19"/>
-      <c r="AN71" s="20"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="21"/>
+      <c r="AN71" s="22"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B72" s="38" t="n">
+      <c r="B72" s="40" t="n">
         <v>45740</v>
       </c>
-      <c r="C72" s="38" t="n">
+      <c r="C72" s="40" t="n">
         <v>45745</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="8"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="7"/>
-      <c r="AG72" s="8"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
-      <c r="AJ72" s="8"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="19"/>
-      <c r="AN72" s="20"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="21"/>
+      <c r="AN72" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B73" s="38" t="n">
+      <c r="B73" s="40" t="n">
         <v>45747</v>
       </c>
-      <c r="C73" s="38" t="n">
+      <c r="C73" s="40" t="n">
         <v>45752</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="8"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="8"/>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
-      <c r="AJ73" s="8"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="19"/>
-      <c r="AN73" s="20"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="21"/>
+      <c r="AN73" s="22"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B74" s="38" t="n">
+      <c r="B74" s="40" t="n">
         <v>45754</v>
       </c>
-      <c r="C74" s="38" t="n">
+      <c r="C74" s="40" t="n">
         <v>45759</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="8"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="8"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="7"/>
-      <c r="AJ74" s="8"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="19"/>
-      <c r="AN74" s="20"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="16"/>
+      <c r="AL74" s="21"/>
+      <c r="AN74" s="22"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B75" s="38" t="n">
+      <c r="B75" s="40" t="n">
         <v>45761</v>
       </c>
-      <c r="C75" s="38" t="n">
+      <c r="C75" s="40" t="n">
         <v>45766</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="7"/>
-      <c r="AJ75" s="8"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="19"/>
-      <c r="AN75" s="20"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="16"/>
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="16"/>
+      <c r="AI75" s="16"/>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="16"/>
+      <c r="AL75" s="21"/>
+      <c r="AN75" s="22"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B76" s="38" t="n">
+      <c r="B76" s="40" t="n">
         <v>45768</v>
       </c>
-      <c r="C76" s="38" t="n">
+      <c r="C76" s="40" t="n">
         <v>45773</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="7"/>
-      <c r="Z76" s="7"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="7"/>
-      <c r="AD76" s="8"/>
-      <c r="AE76" s="7"/>
-      <c r="AF76" s="7"/>
-      <c r="AG76" s="8"/>
-      <c r="AH76" s="7"/>
-      <c r="AI76" s="7"/>
-      <c r="AJ76" s="8"/>
-      <c r="AK76" s="7"/>
-      <c r="AL76" s="19"/>
-      <c r="AN76" s="20"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="17"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="17"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="17"/>
+      <c r="AH76" s="16"/>
+      <c r="AI76" s="16"/>
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="16"/>
+      <c r="AL76" s="21"/>
+      <c r="AN76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B77" s="38" t="n">
+      <c r="B77" s="40" t="n">
         <v>45775</v>
       </c>
-      <c r="C77" s="38" t="n">
+      <c r="C77" s="40" t="n">
         <v>45780</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="7"/>
-      <c r="Z77" s="7"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="7"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="7"/>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="7"/>
-      <c r="AI77" s="7"/>
-      <c r="AJ77" s="8"/>
-      <c r="AK77" s="7"/>
-      <c r="AL77" s="19"/>
-      <c r="AN77" s="20"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="17"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="17"/>
+      <c r="AH77" s="16"/>
+      <c r="AI77" s="16"/>
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="16"/>
+      <c r="AL77" s="21"/>
+      <c r="AN77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B78" s="38" t="n">
+      <c r="B78" s="40" t="n">
         <v>45782</v>
       </c>
-      <c r="C78" s="38" t="n">
+      <c r="C78" s="40" t="n">
         <v>45787</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="7"/>
-      <c r="Z78" s="7"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="7"/>
-      <c r="AC78" s="7"/>
-      <c r="AD78" s="8"/>
-      <c r="AE78" s="7"/>
-      <c r="AF78" s="7"/>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="7"/>
-      <c r="AI78" s="7"/>
-      <c r="AJ78" s="8"/>
-      <c r="AK78" s="7"/>
-      <c r="AL78" s="19"/>
-      <c r="AN78" s="20"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="17"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="16"/>
+      <c r="AI78" s="16"/>
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="16"/>
+      <c r="AL78" s="21"/>
+      <c r="AN78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B79" s="38" t="n">
+      <c r="B79" s="40" t="n">
         <v>45789</v>
       </c>
-      <c r="C79" s="38" t="n">
+      <c r="C79" s="40" t="n">
         <v>45794</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="7"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="7"/>
-      <c r="AJ79" s="8"/>
-      <c r="AK79" s="7"/>
-      <c r="AL79" s="19"/>
-      <c r="AN79" s="20"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="16"/>
+      <c r="AL79" s="21"/>
+      <c r="AN79" s="22"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B80" s="38" t="n">
+      <c r="B80" s="40" t="n">
         <v>45796</v>
       </c>
-      <c r="C80" s="38" t="n">
+      <c r="C80" s="40" t="n">
         <v>45801</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="7"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="8"/>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="7"/>
-      <c r="AG80" s="8"/>
-      <c r="AH80" s="7"/>
-      <c r="AI80" s="7"/>
-      <c r="AJ80" s="8"/>
-      <c r="AK80" s="7"/>
-      <c r="AL80" s="21"/>
-      <c r="AM80" s="22"/>
-      <c r="AN80" s="23"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="16"/>
+      <c r="AF80" s="16"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="16"/>
+      <c r="AI80" s="16"/>
+      <c r="AJ80" s="17"/>
+      <c r="AK80" s="16"/>
+      <c r="AL80" s="23"/>
+      <c r="AM80" s="24"/>
+      <c r="AN80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="41" t="n">
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43" t="n">
         <f aca="false">SUM(E61:E80)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="42" t="n">
+      <c r="F81" s="44" t="n">
         <f aca="false">SUM(F61:F80)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="41" t="n">
+      <c r="H81" s="43" t="n">
         <f aca="false">SUM(H61:H80)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="42" t="n">
+      <c r="I81" s="44" t="n">
         <f aca="false">SUM(I61:I80)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="43" t="s">
+      <c r="J81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="41" t="n">
+      <c r="K81" s="43" t="n">
         <f aca="false">SUM(K61:K80)</f>
         <v>0</v>
       </c>
-      <c r="L81" s="42" t="n">
+      <c r="L81" s="44" t="n">
         <f aca="false">SUM(L61:L80)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="43" t="s">
+      <c r="M81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N81" s="41" t="n">
+      <c r="N81" s="43" t="n">
         <f aca="false">SUM(N61:N80)</f>
         <v>0</v>
       </c>
-      <c r="O81" s="42" t="n">
+      <c r="O81" s="44" t="n">
         <f aca="false">SUM(O61:O80)</f>
         <v>0</v>
       </c>
-      <c r="P81" s="43" t="s">
+      <c r="P81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q81" s="41" t="n">
+      <c r="Q81" s="43" t="n">
         <f aca="false">SUM(Q61:Q80)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="42" t="n">
+      <c r="R81" s="44" t="n">
         <f aca="false">SUM(R61:R80)</f>
         <v>0</v>
       </c>
-      <c r="S81" s="43" t="s">
+      <c r="S81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="41" t="n">
+      <c r="T81" s="43" t="n">
         <f aca="false">SUM(T61:T80)</f>
         <v>0</v>
       </c>
-      <c r="U81" s="42" t="n">
+      <c r="U81" s="44" t="n">
         <f aca="false">SUM(U61:U80)</f>
         <v>0</v>
       </c>
-      <c r="V81" s="43" t="s">
+      <c r="V81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="W81" s="41" t="n">
+      <c r="W81" s="43" t="n">
         <f aca="false">SUM(W61:W80)</f>
         <v>0</v>
       </c>
-      <c r="X81" s="42" t="n">
+      <c r="X81" s="44" t="n">
         <f aca="false">SUM(X61:X80)</f>
         <v>0</v>
       </c>
-      <c r="Y81" s="43" t="s">
+      <c r="Y81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Z81" s="41" t="n">
+      <c r="Z81" s="43" t="n">
         <f aca="false">SUM(Z61:Z80)</f>
         <v>0</v>
       </c>
-      <c r="AA81" s="42" t="n">
+      <c r="AA81" s="44" t="n">
         <f aca="false">SUM(AA61:AA80)</f>
         <v>0</v>
       </c>
-      <c r="AB81" s="43" t="s">
+      <c r="AB81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AC81" s="41" t="n">
+      <c r="AC81" s="43" t="n">
         <f aca="false">SUM(AC61:AC80)</f>
         <v>0</v>
       </c>
-      <c r="AD81" s="42" t="n">
+      <c r="AD81" s="44" t="n">
         <f aca="false">SUM(AD61:AD80)</f>
         <v>0</v>
       </c>
-      <c r="AE81" s="43" t="s">
+      <c r="AE81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AF81" s="41" t="n">
+      <c r="AF81" s="43" t="n">
         <f aca="false">SUM(AF61:AF80)</f>
         <v>0</v>
       </c>
-      <c r="AG81" s="42" t="n">
+      <c r="AG81" s="44" t="n">
         <f aca="false">SUM(AG61:AG80)</f>
         <v>0</v>
       </c>
-      <c r="AH81" s="43" t="s">
+      <c r="AH81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AI81" s="41" t="n">
+      <c r="AI81" s="43" t="n">
         <f aca="false">SUM(AI61:AI80)</f>
         <v>0</v>
       </c>
-      <c r="AJ81" s="42" t="n">
+      <c r="AJ81" s="44" t="n">
         <f aca="false">SUM(AJ61:AJ80)</f>
         <v>0</v>
       </c>
-      <c r="AK81" s="43" t="s">
+      <c r="AK81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AL81" s="44"/>
-      <c r="AM81" s="57"/>
-      <c r="AN81" s="44"/>
+      <c r="AL81" s="46"/>
+      <c r="AM81" s="59"/>
+      <c r="AN81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="46"/>
-      <c r="X82" s="47"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="46"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="46"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="46"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="46"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="48"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="49"/>
+      <c r="V82" s="50"/>
+      <c r="W82" s="48"/>
+      <c r="X82" s="49"/>
+      <c r="Y82" s="50"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="49"/>
+      <c r="AB82" s="50"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="49"/>
+      <c r="AE82" s="50"/>
+      <c r="AF82" s="48"/>
+      <c r="AG82" s="49"/>
+      <c r="AH82" s="50"/>
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="49"/>
+      <c r="AK82" s="50"/>
       <c r="AL82" s="11"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="51" t="n">
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53" t="n">
         <f aca="false">SUM(E81,H81,K81,N81,Q81,T81,W81,Z81,AC81,AF81,AI81)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="52" t="n">
+      <c r="F83" s="54" t="n">
         <f aca="false">SUM(F81,I81,L81,O81,R81,U81,X81,AA81,AD81,AG81,AJ81)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G83" s="55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="54" t="s">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="55"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="57"/>
+    </row>
     <row r="87" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>33</v>
@@ -3484,652 +3849,832 @@
       <c r="A88" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B88" s="38" t="n">
+      <c r="B88" s="40" t="n">
         <v>45663</v>
       </c>
-      <c r="C88" s="38" t="n">
+      <c r="C88" s="40" t="n">
         <v>45668</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="7"/>
-      <c r="AL88" s="16"/>
-      <c r="AM88" s="17"/>
-      <c r="AN88" s="18"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="16"/>
+      <c r="AL88" s="18"/>
+      <c r="AM88" s="19"/>
+      <c r="AN88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B89" s="38" t="n">
+      <c r="B89" s="40" t="n">
         <v>45670</v>
       </c>
-      <c r="C89" s="38" t="n">
+      <c r="C89" s="40" t="n">
         <v>45675</v>
       </c>
       <c r="D89" s="15"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="7"/>
-      <c r="AL89" s="19"/>
-      <c r="AN89" s="20"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="16"/>
+      <c r="AL89" s="21"/>
+      <c r="AN89" s="22"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B90" s="38" t="n">
+      <c r="B90" s="40" t="n">
         <v>45677</v>
       </c>
-      <c r="C90" s="38" t="n">
+      <c r="C90" s="40" t="n">
         <v>45682</v>
       </c>
       <c r="D90" s="15"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="7"/>
-      <c r="AL90" s="19"/>
-      <c r="AN90" s="20"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="16"/>
+      <c r="AL90" s="21"/>
+      <c r="AN90" s="22"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B91" s="38" t="n">
+      <c r="B91" s="40" t="n">
         <v>45684</v>
       </c>
-      <c r="C91" s="38" t="n">
+      <c r="C91" s="40" t="n">
         <v>45689</v>
       </c>
       <c r="D91" s="15"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="7"/>
-      <c r="AL91" s="19"/>
-      <c r="AN91" s="20"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="16"/>
+      <c r="AL91" s="21"/>
+      <c r="AN91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B92" s="38" t="n">
+      <c r="B92" s="40" t="n">
         <v>45691</v>
       </c>
-      <c r="C92" s="38" t="n">
+      <c r="C92" s="40" t="n">
         <v>45696</v>
       </c>
       <c r="D92" s="15"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="7"/>
-      <c r="AL92" s="19"/>
-      <c r="AN92" s="20"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="16"/>
+      <c r="AL92" s="21"/>
+      <c r="AN92" s="22"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="38" t="n">
+      <c r="B93" s="40" t="n">
         <v>45698</v>
       </c>
-      <c r="C93" s="38" t="n">
+      <c r="C93" s="40" t="n">
         <v>45703</v>
       </c>
       <c r="D93" s="15"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="8"/>
-      <c r="Y93" s="7"/>
-      <c r="AL93" s="19"/>
-      <c r="AN93" s="20"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="16"/>
+      <c r="AL93" s="21"/>
+      <c r="AN93" s="22"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B94" s="38" t="n">
+      <c r="B94" s="40" t="n">
         <v>45705</v>
       </c>
-      <c r="C94" s="38" t="n">
+      <c r="C94" s="40" t="n">
         <v>45710</v>
       </c>
       <c r="D94" s="15"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="7"/>
-      <c r="AL94" s="19"/>
-      <c r="AN94" s="20"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="16"/>
+      <c r="AL94" s="21"/>
+      <c r="AN94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="38" t="n">
+      <c r="B95" s="40" t="n">
         <v>45712</v>
       </c>
-      <c r="C95" s="38" t="n">
+      <c r="C95" s="40" t="n">
         <v>45717</v>
       </c>
       <c r="D95" s="15"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="7"/>
-      <c r="AL95" s="19"/>
-      <c r="AN95" s="20"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="16"/>
+      <c r="AL95" s="21"/>
+      <c r="AN95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B96" s="38" t="n">
+      <c r="B96" s="40" t="n">
         <v>45719</v>
       </c>
-      <c r="C96" s="38" t="n">
+      <c r="C96" s="40" t="n">
         <v>45724</v>
       </c>
       <c r="D96" s="15"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="7"/>
-      <c r="AL96" s="19"/>
-      <c r="AN96" s="20"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="16"/>
+      <c r="AL96" s="21"/>
+      <c r="AN96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B97" s="38" t="n">
+      <c r="B97" s="40" t="n">
         <v>45726</v>
       </c>
-      <c r="C97" s="38" t="n">
+      <c r="C97" s="40" t="n">
         <v>45731</v>
       </c>
       <c r="D97" s="15"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="7"/>
-      <c r="AL97" s="19"/>
-      <c r="AN97" s="20"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="16"/>
+      <c r="AL97" s="21"/>
+      <c r="AN97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B98" s="38" t="n">
+      <c r="B98" s="40" t="n">
         <v>45733</v>
       </c>
-      <c r="C98" s="38" t="n">
+      <c r="C98" s="40" t="n">
         <v>45738</v>
       </c>
       <c r="D98" s="15"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="8"/>
-      <c r="Y98" s="7"/>
-      <c r="AL98" s="19"/>
-      <c r="AN98" s="20"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="16"/>
+      <c r="AL98" s="21"/>
+      <c r="AN98" s="22"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B99" s="38" t="n">
+      <c r="B99" s="40" t="n">
         <v>45740</v>
       </c>
-      <c r="C99" s="38" t="n">
+      <c r="C99" s="40" t="n">
         <v>45745</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="7"/>
-      <c r="AL99" s="19"/>
-      <c r="AN99" s="20"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="16"/>
+      <c r="AL99" s="21"/>
+      <c r="AN99" s="22"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B100" s="38" t="n">
+      <c r="B100" s="40" t="n">
         <v>45747</v>
       </c>
-      <c r="C100" s="38" t="n">
+      <c r="C100" s="40" t="n">
         <v>45752</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="7"/>
-      <c r="AL100" s="19"/>
-      <c r="AN100" s="20"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="16"/>
+      <c r="AL100" s="21"/>
+      <c r="AN100" s="22"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B101" s="38" t="n">
+      <c r="B101" s="40" t="n">
         <v>45754</v>
       </c>
-      <c r="C101" s="38" t="n">
+      <c r="C101" s="40" t="n">
         <v>45759</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="7"/>
-      <c r="AL101" s="19"/>
-      <c r="AN101" s="20"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="16"/>
+      <c r="AL101" s="21"/>
+      <c r="AN101" s="22"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B102" s="38" t="n">
+      <c r="B102" s="40" t="n">
         <v>45761</v>
       </c>
-      <c r="C102" s="38" t="n">
+      <c r="C102" s="40" t="n">
         <v>45766</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="7"/>
-      <c r="AL102" s="19"/>
-      <c r="AN102" s="20"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="16"/>
+      <c r="AL102" s="21"/>
+      <c r="AN102" s="22"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B103" s="38" t="n">
+      <c r="B103" s="40" t="n">
         <v>45768</v>
       </c>
-      <c r="C103" s="38" t="n">
+      <c r="C103" s="40" t="n">
         <v>45773</v>
       </c>
       <c r="D103" s="15"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="7"/>
-      <c r="AL103" s="19"/>
-      <c r="AN103" s="20"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="16"/>
+      <c r="AL103" s="21"/>
+      <c r="AN103" s="22"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B104" s="38" t="n">
+      <c r="B104" s="40" t="n">
         <v>45775</v>
       </c>
-      <c r="C104" s="38" t="n">
+      <c r="C104" s="40" t="n">
         <v>45780</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="8"/>
-      <c r="Y104" s="7"/>
-      <c r="AL104" s="19"/>
-      <c r="AN104" s="20"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="16"/>
+      <c r="AL104" s="21"/>
+      <c r="AN104" s="22"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B105" s="38" t="n">
+      <c r="B105" s="40" t="n">
         <v>45782</v>
       </c>
-      <c r="C105" s="38" t="n">
+      <c r="C105" s="40" t="n">
         <v>45787</v>
       </c>
       <c r="D105" s="15"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="8"/>
-      <c r="Y105" s="7"/>
-      <c r="AL105" s="19"/>
-      <c r="AN105" s="20"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="16"/>
+      <c r="AL105" s="21"/>
+      <c r="AN105" s="22"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B106" s="38" t="n">
+      <c r="B106" s="40" t="n">
         <v>45789</v>
       </c>
-      <c r="C106" s="38" t="n">
+      <c r="C106" s="40" t="n">
         <v>45794</v>
       </c>
       <c r="D106" s="15"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="8"/>
-      <c r="Y106" s="7"/>
-      <c r="AL106" s="19"/>
-      <c r="AN106" s="20"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="16"/>
+      <c r="AL106" s="21"/>
+      <c r="AN106" s="22"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B107" s="38" t="n">
+      <c r="B107" s="40" t="n">
         <v>45796</v>
       </c>
-      <c r="C107" s="38" t="n">
+      <c r="C107" s="40" t="n">
         <v>45801</v>
       </c>
       <c r="D107" s="15"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="8"/>
-      <c r="Y107" s="7"/>
-      <c r="AL107" s="21"/>
-      <c r="AM107" s="22"/>
-      <c r="AN107" s="23"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="16"/>
+      <c r="AL107" s="23"/>
+      <c r="AM107" s="24"/>
+      <c r="AN107" s="25"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41" t="n">
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="43" t="n">
         <f aca="false">SUM(E88:E107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="42" t="n">
+      <c r="F108" s="44" t="n">
         <f aca="false">SUM(F88:F107)</f>
         <v>0</v>
       </c>
-      <c r="G108" s="43" t="s">
+      <c r="G108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H108" s="41" t="n">
+      <c r="H108" s="43" t="n">
         <f aca="false">SUM(H88:H107)</f>
         <v>0</v>
       </c>
-      <c r="I108" s="42" t="n">
+      <c r="I108" s="44" t="n">
         <f aca="false">SUM(I88:I107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="43" t="s">
+      <c r="J108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K108" s="41" t="n">
+      <c r="K108" s="43" t="n">
         <f aca="false">SUM(K88:K107)</f>
         <v>0</v>
       </c>
-      <c r="L108" s="42" t="n">
+      <c r="L108" s="44" t="n">
         <f aca="false">SUM(L88:L107)</f>
         <v>0</v>
       </c>
-      <c r="M108" s="43" t="s">
+      <c r="M108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N108" s="41" t="n">
+      <c r="N108" s="43" t="n">
         <f aca="false">SUM(N88:N107)</f>
         <v>0</v>
       </c>
-      <c r="O108" s="42" t="n">
+      <c r="O108" s="44" t="n">
         <f aca="false">SUM(O88:O107)</f>
         <v>0</v>
       </c>
-      <c r="P108" s="43" t="s">
+      <c r="P108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q108" s="41" t="n">
+      <c r="Q108" s="43" t="n">
         <f aca="false">SUM(Q88:Q107)</f>
         <v>0</v>
       </c>
-      <c r="R108" s="42" t="n">
+      <c r="R108" s="44" t="n">
         <f aca="false">SUM(R88:R107)</f>
         <v>0</v>
       </c>
-      <c r="S108" s="43" t="s">
+      <c r="S108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="T108" s="41" t="n">
+      <c r="T108" s="43" t="n">
         <f aca="false">SUM(T88:T107)</f>
         <v>0</v>
       </c>
-      <c r="U108" s="42" t="n">
+      <c r="U108" s="44" t="n">
         <f aca="false">SUM(U88:U107)</f>
         <v>0</v>
       </c>
-      <c r="V108" s="43" t="s">
+      <c r="V108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="W108" s="41" t="n">
+      <c r="W108" s="43" t="n">
         <f aca="false">SUM(W88:W107)</f>
         <v>0</v>
       </c>
-      <c r="X108" s="42" t="n">
+      <c r="X108" s="44" t="n">
         <f aca="false">SUM(X88:X107)</f>
         <v>0</v>
       </c>
-      <c r="Y108" s="43" t="s">
+      <c r="Y108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Z108" s="41" t="n">
+      <c r="Z108" s="43" t="n">
         <f aca="false">SUM(Z88:Z107)</f>
         <v>0</v>
       </c>
-      <c r="AA108" s="42" t="n">
+      <c r="AA108" s="44" t="n">
         <f aca="false">SUM(AA88:AA107)</f>
         <v>0</v>
       </c>
-      <c r="AB108" s="43" t="s">
+      <c r="AB108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AC108" s="41" t="n">
+      <c r="AC108" s="43" t="n">
         <f aca="false">SUM(AC88:AC107)</f>
         <v>0</v>
       </c>
-      <c r="AD108" s="42" t="n">
+      <c r="AD108" s="44" t="n">
         <f aca="false">SUM(AD88:AD107)</f>
         <v>0</v>
       </c>
-      <c r="AE108" s="43" t="s">
+      <c r="AE108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AF108" s="41" t="n">
+      <c r="AF108" s="43" t="n">
         <f aca="false">SUM(AF88:AF107)</f>
         <v>0</v>
       </c>
-      <c r="AG108" s="42" t="n">
+      <c r="AG108" s="44" t="n">
         <f aca="false">SUM(AG88:AG107)</f>
         <v>0</v>
       </c>
-      <c r="AH108" s="43" t="s">
+      <c r="AH108" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AI108" s="41" t="n">
+      <c r="AI108" s="43" t="n">
         <f aca="false">SUM(AI88:AI107)</f>
         <v>0</v>
       </c>
-      <c r="AJ108" s="42" t="n">
+      <c r="AJ108" s="44" t="n">
         <f aca="false">SUM(AJ88:AJ107)</f>
         <v>0</v>
       </c>
-      <c r="AK108" s="43" t="s">
+      <c r="AK108" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AL108" s="11"/>
@@ -4137,80 +4682,79 @@
       <c r="AN108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="47"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="47"/>
-      <c r="P109" s="48"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="47"/>
-      <c r="S109" s="48"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="47"/>
-      <c r="V109" s="48"/>
-      <c r="W109" s="46"/>
-      <c r="X109" s="47"/>
-      <c r="Y109" s="48"/>
-      <c r="Z109" s="46"/>
-      <c r="AA109" s="47"/>
-      <c r="AB109" s="48"/>
-      <c r="AC109" s="46"/>
-      <c r="AD109" s="47"/>
-      <c r="AE109" s="48"/>
-      <c r="AF109" s="46"/>
-      <c r="AG109" s="47"/>
-      <c r="AH109" s="48"/>
-      <c r="AI109" s="46"/>
-      <c r="AJ109" s="47"/>
-      <c r="AK109" s="48"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="49"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="49"/>
+      <c r="V109" s="50"/>
+      <c r="W109" s="48"/>
+      <c r="X109" s="49"/>
+      <c r="Y109" s="50"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="49"/>
+      <c r="AB109" s="50"/>
+      <c r="AC109" s="48"/>
+      <c r="AD109" s="49"/>
+      <c r="AE109" s="50"/>
+      <c r="AF109" s="48"/>
+      <c r="AG109" s="49"/>
+      <c r="AH109" s="50"/>
+      <c r="AI109" s="48"/>
+      <c r="AJ109" s="49"/>
+      <c r="AK109" s="50"/>
       <c r="AL109" s="11"/>
       <c r="AM109" s="12"/>
       <c r="AN109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="51" t="n">
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="53" t="n">
         <f aca="false">SUM(E108,H108,K108,N108,Q108,T108,W108,Z108,AC108,AF108,AI108)</f>
         <v>0</v>
       </c>
-      <c r="F110" s="52" t="n">
+      <c r="F110" s="54" t="n">
         <f aca="false">SUM(F108,I108,L108,O108,R108,U108,X108,AA108,AD108,AG108,AJ108)</f>
         <v>0</v>
       </c>
-      <c r="G110" s="53" t="s">
+      <c r="G110" s="55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="54" t="s">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="55"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="57"/>
+    </row>
     <row r="114" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>36</v>
@@ -4226,10 +4770,10 @@
       <c r="A115" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B115" s="38" t="n">
+      <c r="B115" s="40" t="n">
         <v>45663</v>
       </c>
-      <c r="C115" s="38" t="n">
+      <c r="C115" s="40" t="n">
         <v>45668</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -4240,10 +4784,10 @@
       <c r="A116" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B116" s="38" t="n">
+      <c r="B116" s="40" t="n">
         <v>45670</v>
       </c>
-      <c r="C116" s="38" t="n">
+      <c r="C116" s="40" t="n">
         <v>45675</v>
       </c>
       <c r="D116" s="15"/>
@@ -4252,10 +4796,10 @@
       <c r="A117" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B117" s="38" t="n">
+      <c r="B117" s="40" t="n">
         <v>45677</v>
       </c>
-      <c r="C117" s="38" t="n">
+      <c r="C117" s="40" t="n">
         <v>45682</v>
       </c>
       <c r="D117" s="15"/>
@@ -4264,10 +4808,10 @@
       <c r="A118" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B118" s="38" t="n">
+      <c r="B118" s="40" t="n">
         <v>45684</v>
       </c>
-      <c r="C118" s="38" t="n">
+      <c r="C118" s="40" t="n">
         <v>45689</v>
       </c>
       <c r="D118" s="15"/>
@@ -4276,10 +4820,10 @@
       <c r="A119" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="38" t="n">
+      <c r="B119" s="40" t="n">
         <v>45691</v>
       </c>
-      <c r="C119" s="38" t="n">
+      <c r="C119" s="40" t="n">
         <v>45696</v>
       </c>
       <c r="D119" s="15"/>
@@ -4288,10 +4832,10 @@
       <c r="A120" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B120" s="38" t="n">
+      <c r="B120" s="40" t="n">
         <v>45698</v>
       </c>
-      <c r="C120" s="38" t="n">
+      <c r="C120" s="40" t="n">
         <v>45703</v>
       </c>
       <c r="D120" s="15"/>
@@ -4300,10 +4844,10 @@
       <c r="A121" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="38" t="n">
+      <c r="B121" s="40" t="n">
         <v>45705</v>
       </c>
-      <c r="C121" s="38" t="n">
+      <c r="C121" s="40" t="n">
         <v>45710</v>
       </c>
       <c r="D121" s="15"/>
@@ -4312,10 +4856,10 @@
       <c r="A122" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B122" s="38" t="n">
+      <c r="B122" s="40" t="n">
         <v>45712</v>
       </c>
-      <c r="C122" s="38" t="n">
+      <c r="C122" s="40" t="n">
         <v>45717</v>
       </c>
       <c r="D122" s="15"/>
@@ -4324,10 +4868,10 @@
       <c r="A123" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B123" s="38" t="n">
+      <c r="B123" s="40" t="n">
         <v>45719</v>
       </c>
-      <c r="C123" s="38" t="n">
+      <c r="C123" s="40" t="n">
         <v>45724</v>
       </c>
       <c r="D123" s="15"/>
@@ -4336,10 +4880,10 @@
       <c r="A124" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B124" s="38" t="n">
+      <c r="B124" s="40" t="n">
         <v>45726</v>
       </c>
-      <c r="C124" s="38" t="n">
+      <c r="C124" s="40" t="n">
         <v>45731</v>
       </c>
       <c r="D124" s="15"/>
@@ -4348,10 +4892,10 @@
       <c r="A125" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="38" t="n">
+      <c r="B125" s="40" t="n">
         <v>45733</v>
       </c>
-      <c r="C125" s="38" t="n">
+      <c r="C125" s="40" t="n">
         <v>45738</v>
       </c>
       <c r="D125" s="15"/>
@@ -4360,10 +4904,10 @@
       <c r="A126" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B126" s="38" t="n">
+      <c r="B126" s="40" t="n">
         <v>45740</v>
       </c>
-      <c r="C126" s="38" t="n">
+      <c r="C126" s="40" t="n">
         <v>45745</v>
       </c>
       <c r="D126" s="15"/>
@@ -4372,10 +4916,10 @@
       <c r="A127" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B127" s="38" t="n">
+      <c r="B127" s="40" t="n">
         <v>45747</v>
       </c>
-      <c r="C127" s="38" t="n">
+      <c r="C127" s="40" t="n">
         <v>45752</v>
       </c>
       <c r="D127" s="15"/>
@@ -4384,10 +4928,10 @@
       <c r="A128" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="38" t="n">
+      <c r="B128" s="40" t="n">
         <v>45754</v>
       </c>
-      <c r="C128" s="38" t="n">
+      <c r="C128" s="40" t="n">
         <v>45759</v>
       </c>
       <c r="D128" s="15"/>
@@ -4396,10 +4940,10 @@
       <c r="A129" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B129" s="38" t="n">
+      <c r="B129" s="40" t="n">
         <v>45761</v>
       </c>
-      <c r="C129" s="38" t="n">
+      <c r="C129" s="40" t="n">
         <v>45766</v>
       </c>
       <c r="D129" s="15"/>
@@ -4408,10 +4952,10 @@
       <c r="A130" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B130" s="38" t="n">
+      <c r="B130" s="40" t="n">
         <v>45768</v>
       </c>
-      <c r="C130" s="38" t="n">
+      <c r="C130" s="40" t="n">
         <v>45773</v>
       </c>
       <c r="D130" s="15"/>
@@ -4420,10 +4964,10 @@
       <c r="A131" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B131" s="38" t="n">
+      <c r="B131" s="40" t="n">
         <v>45775</v>
       </c>
-      <c r="C131" s="38" t="n">
+      <c r="C131" s="40" t="n">
         <v>45780</v>
       </c>
       <c r="D131" s="15"/>
@@ -4432,10 +4976,10 @@
       <c r="A132" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B132" s="38" t="n">
+      <c r="B132" s="40" t="n">
         <v>45782</v>
       </c>
-      <c r="C132" s="38" t="n">
+      <c r="C132" s="40" t="n">
         <v>45787</v>
       </c>
       <c r="D132" s="15"/>
@@ -4444,10 +4988,10 @@
       <c r="A133" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B133" s="38" t="n">
+      <c r="B133" s="40" t="n">
         <v>45789</v>
       </c>
-      <c r="C133" s="38" t="n">
+      <c r="C133" s="40" t="n">
         <v>45794</v>
       </c>
       <c r="D133" s="15"/>
@@ -4456,43 +5000,43 @@
       <c r="A134" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B134" s="38" t="n">
+      <c r="B134" s="40" t="n">
         <v>45796</v>
       </c>
-      <c r="C134" s="38" t="n">
+      <c r="C134" s="40" t="n">
         <v>45801</v>
       </c>
       <c r="D134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="51" t="n">
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53" t="n">
         <f aca="false">SUM(E115:E134)</f>
         <v>0</v>
       </c>
-      <c r="F135" s="52" t="n">
+      <c r="F135" s="54" t="n">
         <f aca="false">SUM(F115:F134)</f>
         <v>0</v>
       </c>
-      <c r="G135" s="53" t="s">
+      <c r="G135" s="55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="54" t="s">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="55"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="57"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4519,358 +5063,358 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="58" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="60" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="61" t="n">
-        <v>45670</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="63" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="61" t="n">
-        <v>45789</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="B4" s="63" t="n">
+        <v>45420</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="64"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="62"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="38" t="n">
+      <c r="A9" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="40" t="n">
         <f aca="false">B10-7</f>
-        <v>45663</v>
-      </c>
-      <c r="C9" s="38" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C9" s="40" t="n">
         <f aca="false">C10-7</f>
-        <v>45668</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="F9" s="59" t="s">
+        <v>45297</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="F9" s="61" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="n">
+      <c r="A10" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="38" t="n">
+      <c r="B10" s="40" t="n">
         <f aca="false">B3-WEEKDAY(B3,3)</f>
-        <v>45670</v>
-      </c>
-      <c r="C10" s="38" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="40" t="n">
         <f aca="false">B10+5</f>
-        <v>45675</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="F10" s="59" t="s">
+        <v>45304</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="F10" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="n">
+      <c r="A11" s="65" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="n">
+      <c r="B11" s="40" t="n">
         <f aca="false">B10+7</f>
-        <v>45677</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C11" s="40" t="n">
         <f aca="false">B11+5</f>
-        <v>45682</v>
-      </c>
-      <c r="D11" s="60"/>
+        <v>45311</v>
+      </c>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="n">
+      <c r="A12" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="38" t="n">
+      <c r="B12" s="40" t="n">
         <f aca="false">B11+7</f>
-        <v>45684</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C12" s="40" t="n">
         <f aca="false">B12+5</f>
-        <v>45689</v>
-      </c>
-      <c r="D12" s="60"/>
+        <v>45318</v>
+      </c>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="n">
+      <c r="A13" s="65" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="38" t="n">
+      <c r="B13" s="40" t="n">
         <f aca="false">B12+7</f>
-        <v>45691</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C13" s="40" t="n">
         <f aca="false">B13+5</f>
-        <v>45696</v>
-      </c>
-      <c r="D13" s="60"/>
+        <v>45325</v>
+      </c>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="n">
+      <c r="A14" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="38" t="n">
+      <c r="B14" s="40" t="n">
         <f aca="false">B13+7</f>
-        <v>45698</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C14" s="40" t="n">
         <f aca="false">B14+5</f>
-        <v>45703</v>
-      </c>
-      <c r="D14" s="60"/>
+        <v>45332</v>
+      </c>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="n">
+      <c r="A15" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="38" t="n">
+      <c r="B15" s="40" t="n">
         <f aca="false">B14+7</f>
-        <v>45705</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <f aca="false">B15+5</f>
-        <v>45710</v>
-      </c>
-      <c r="D15" s="60"/>
+        <v>45339</v>
+      </c>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="n">
+      <c r="A16" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="38" t="n">
+      <c r="B16" s="40" t="n">
         <f aca="false">B15+7</f>
-        <v>45712</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C16" s="40" t="n">
         <f aca="false">B16+5</f>
-        <v>45717</v>
-      </c>
-      <c r="D16" s="60"/>
+        <v>45346</v>
+      </c>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63" t="n">
+      <c r="A17" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="38" t="n">
+      <c r="B17" s="40" t="n">
         <f aca="false">B16+7</f>
-        <v>45719</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C17" s="40" t="n">
         <f aca="false">B17+5</f>
-        <v>45724</v>
-      </c>
-      <c r="D17" s="60"/>
+        <v>45353</v>
+      </c>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="n">
+      <c r="A18" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="38" t="n">
+      <c r="B18" s="40" t="n">
         <f aca="false">B17+7</f>
-        <v>45726</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C18" s="40" t="n">
         <f aca="false">B18+5</f>
-        <v>45731</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="F18" s="59" t="s">
+        <v>45360</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="F18" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="n">
+      <c r="A19" s="65" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="38" t="n">
+      <c r="B19" s="40" t="n">
         <f aca="false">B18+7</f>
-        <v>45733</v>
-      </c>
-      <c r="C19" s="38" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C19" s="40" t="n">
         <f aca="false">B19+5</f>
-        <v>45738</v>
-      </c>
-      <c r="D19" s="60"/>
+        <v>45367</v>
+      </c>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="n">
+      <c r="A20" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="38" t="n">
+      <c r="B20" s="40" t="n">
         <f aca="false">B19+7</f>
-        <v>45740</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C20" s="40" t="n">
         <f aca="false">B20+5</f>
-        <v>45745</v>
-      </c>
-      <c r="D20" s="60"/>
+        <v>45374</v>
+      </c>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="n">
+      <c r="A21" s="65" t="n">
         <v>12</v>
       </c>
-      <c r="B21" s="38" t="n">
+      <c r="B21" s="40" t="n">
         <f aca="false">B20+7</f>
-        <v>45747</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C21" s="40" t="n">
         <f aca="false">B21+5</f>
-        <v>45752</v>
-      </c>
-      <c r="D21" s="60"/>
+        <v>45381</v>
+      </c>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="n">
+      <c r="A22" s="65" t="n">
         <v>13</v>
       </c>
-      <c r="B22" s="38" t="n">
+      <c r="B22" s="40" t="n">
         <f aca="false">B21+7</f>
-        <v>45754</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C22" s="40" t="n">
         <f aca="false">B22+5</f>
-        <v>45759</v>
-      </c>
-      <c r="D22" s="60"/>
+        <v>45388</v>
+      </c>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="n">
+      <c r="A23" s="65" t="n">
         <v>14</v>
       </c>
-      <c r="B23" s="38" t="n">
+      <c r="B23" s="40" t="n">
         <f aca="false">B22+7</f>
-        <v>45761</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C23" s="40" t="n">
         <f aca="false">B23+5</f>
-        <v>45766</v>
-      </c>
-      <c r="D23" s="60"/>
+        <v>45395</v>
+      </c>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="n">
+      <c r="A24" s="65" t="n">
         <v>15</v>
       </c>
-      <c r="B24" s="38" t="n">
+      <c r="B24" s="40" t="n">
         <f aca="false">B23+7</f>
-        <v>45768</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C24" s="40" t="n">
         <f aca="false">B24+5</f>
-        <v>45773</v>
-      </c>
-      <c r="D24" s="60"/>
+        <v>45402</v>
+      </c>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63" t="n">
+      <c r="A25" s="65" t="n">
         <v>16</v>
       </c>
-      <c r="B25" s="38" t="n">
+      <c r="B25" s="40" t="n">
         <f aca="false">B24+7</f>
-        <v>45775</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C25" s="40" t="n">
         <f aca="false">B25+5</f>
-        <v>45780</v>
-      </c>
-      <c r="D25" s="60"/>
+        <v>45409</v>
+      </c>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63" t="n">
+      <c r="A26" s="65" t="n">
         <v>17</v>
       </c>
-      <c r="B26" s="38" t="n">
+      <c r="B26" s="40" t="n">
         <f aca="false">B25+7</f>
-        <v>45782</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C26" s="40" t="n">
         <f aca="false">B26+5</f>
-        <v>45787</v>
-      </c>
-      <c r="D26" s="60"/>
+        <v>45416</v>
+      </c>
+      <c r="D26" s="62"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63" t="n">
+      <c r="A27" s="65" t="n">
         <v>18</v>
       </c>
-      <c r="B27" s="38" t="n">
+      <c r="B27" s="40" t="n">
         <f aca="false">B26+7</f>
-        <v>45789</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C27" s="40" t="n">
         <f aca="false">B27+5</f>
-        <v>45794</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="F27" s="59" t="s">
+        <v>45423</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="F27" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="63" t="n">
+      <c r="A28" s="65" t="n">
         <v>19</v>
       </c>
-      <c r="B28" s="38" t="n">
+      <c r="B28" s="40" t="n">
         <f aca="false">B27+7</f>
-        <v>45796</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C28" s="40" t="n">
         <f aca="false">B28+5</f>
-        <v>45801</v>
-      </c>
-      <c r="D28" s="60"/>
+        <v>45430</v>
+      </c>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dev/moths/Tutoring Center Report TARGET.xlsx
+++ b/dev/moths/Tutoring Center Report TARGET.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">ComputerInfo Systems</t>
+    <t xml:space="preserve">Computer Info Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Languages</t>
@@ -421,7 +421,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,14 +484,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -877,7 +869,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1176,36 +1168,9 @@
       <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="20"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
@@ -1218,35 +1183,8 @@
         <v>45675</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="21"/>
-      <c r="AN8" s="22"/>
+      <c r="AL8" s="19"/>
+      <c r="AN8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
@@ -1259,35 +1197,8 @@
         <v>45682</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="21"/>
-      <c r="AN9" s="22"/>
+      <c r="AL9" s="19"/>
+      <c r="AN9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
@@ -1300,35 +1211,8 @@
         <v>45689</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="21"/>
-      <c r="AN10" s="22"/>
+      <c r="AL10" s="19"/>
+      <c r="AN10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
@@ -1341,35 +1225,8 @@
         <v>45696</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="21"/>
-      <c r="AN11" s="22"/>
+      <c r="AL11" s="19"/>
+      <c r="AN11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
@@ -1382,35 +1239,8 @@
         <v>45703</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="21"/>
-      <c r="AN12" s="22"/>
+      <c r="AL12" s="19"/>
+      <c r="AN12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
@@ -1423,35 +1253,8 @@
         <v>45710</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="21"/>
-      <c r="AN13" s="22"/>
+      <c r="AL13" s="19"/>
+      <c r="AN13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
@@ -1464,35 +1267,8 @@
         <v>45717</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="21"/>
-      <c r="AN14" s="22"/>
+      <c r="AL14" s="19"/>
+      <c r="AN14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
@@ -1505,35 +1281,8 @@
         <v>45724</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="21"/>
-      <c r="AN15" s="22"/>
+      <c r="AL15" s="19"/>
+      <c r="AN15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
@@ -1546,35 +1295,8 @@
         <v>45731</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="21"/>
-      <c r="AN16" s="22"/>
+      <c r="AL16" s="19"/>
+      <c r="AN16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
@@ -1587,35 +1309,8 @@
         <v>45738</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="21"/>
-      <c r="AN17" s="22"/>
+      <c r="AL17" s="19"/>
+      <c r="AN17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
@@ -1628,35 +1323,8 @@
         <v>45745</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="21"/>
-      <c r="AN18" s="22"/>
+      <c r="AL18" s="19"/>
+      <c r="AN18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
@@ -1669,35 +1337,8 @@
         <v>45752</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="21"/>
-      <c r="AN19" s="22"/>
+      <c r="AL19" s="19"/>
+      <c r="AN19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
@@ -1710,35 +1351,8 @@
         <v>45759</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="21"/>
-      <c r="AN20" s="22"/>
+      <c r="AL20" s="19"/>
+      <c r="AN20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
@@ -1751,35 +1365,8 @@
         <v>45766</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="21"/>
-      <c r="AN21" s="22"/>
+      <c r="AL21" s="19"/>
+      <c r="AN21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
@@ -1792,35 +1379,8 @@
         <v>45773</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="21"/>
-      <c r="AN22" s="22"/>
+      <c r="AL22" s="19"/>
+      <c r="AN22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
@@ -1833,35 +1393,8 @@
         <v>45780</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="21"/>
-      <c r="AN23" s="22"/>
+      <c r="AL23" s="19"/>
+      <c r="AN23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
@@ -1874,35 +1407,8 @@
         <v>45787</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="21"/>
-      <c r="AN24" s="22"/>
+      <c r="AL24" s="19"/>
+      <c r="AN24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
@@ -1915,35 +1421,8 @@
         <v>45794</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="21"/>
-      <c r="AN25" s="22"/>
+      <c r="AL25" s="19"/>
+      <c r="AN25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
@@ -1956,166 +1435,139 @@
         <v>45801</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="25"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28" t="n">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26" t="n">
         <f aca="false">SUM(E7:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="27" t="n">
         <f aca="false">SUM(F7:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="28" t="n">
+      <c r="G27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="26" t="n">
         <f aca="false">SUM(H7:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="29" t="n">
+      <c r="I27" s="27" t="n">
         <f aca="false">SUM(I7:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="28" t="n">
+      <c r="J27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="26" t="n">
         <f aca="false">SUM(K7:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="29" t="n">
+      <c r="L27" s="27" t="n">
         <f aca="false">SUM(L7:L26)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="28" t="n">
+      <c r="M27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="26" t="n">
         <f aca="false">SUM(N7:N26)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="29" t="n">
+      <c r="O27" s="27" t="n">
         <f aca="false">SUM(O7:O26)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="28" t="n">
+      <c r="P27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="26" t="n">
         <f aca="false">SUM(Q7:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="29" t="n">
+      <c r="R27" s="27" t="n">
         <f aca="false">SUM(R7:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="28" t="n">
+      <c r="S27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="26" t="n">
         <f aca="false">SUM(T7:T26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="29" t="n">
+      <c r="U27" s="27" t="n">
         <f aca="false">SUM(U7:U26)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="W27" s="28" t="n">
+      <c r="V27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="26" t="n">
         <f aca="false">SUM(W7:W26)</f>
         <v>0</v>
       </c>
-      <c r="X27" s="29" t="n">
+      <c r="X27" s="27" t="n">
         <f aca="false">SUM(X7:X26)</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z27" s="28" t="n">
+      <c r="Y27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" s="26" t="n">
         <f aca="false">SUM(Z7:Z26)</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="29" t="n">
+      <c r="AA27" s="27" t="n">
         <f aca="false">SUM(AA7:AA26)</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC27" s="28" t="n">
+      <c r="AB27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27" s="26" t="n">
         <f aca="false">SUM(AC7:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="29" t="n">
+      <c r="AD27" s="27" t="n">
         <f aca="false">SUM(AD7:AD26)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF27" s="28" t="n">
+      <c r="AE27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF27" s="26" t="n">
         <f aca="false">SUM(AF7:AF26)</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="29" t="n">
+      <c r="AG27" s="27" t="n">
         <f aca="false">SUM(AG7:AG26)</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI27" s="28" t="n">
+      <c r="AH27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI27" s="26" t="n">
         <f aca="false">SUM(AI7:AI26)</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="29" t="n">
+      <c r="AJ27" s="27" t="n">
         <f aca="false">SUM(AJ7:AJ26)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL27" s="31"/>
+      <c r="AK27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL27" s="29"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="11"/>
     </row>
@@ -2128,7 +1580,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="32"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
@@ -2159,39 +1611,39 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="31"/>
+      <c r="AL28" s="29"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34" t="n">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32" t="n">
         <f aca="false">SUM(E27,H27,K27,N27,Q27,T27,W27,Z27,AC27,AF27,AI27)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="35" t="n">
+      <c r="F29" s="33" t="n">
         <f aca="false">SUM(F27,I27,L27,O27,R27,U27,X27,AA27,AD27,AG27,AJ27)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
@@ -2241,491 +1693,491 @@
       <c r="A34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B34" s="40" t="n">
+      <c r="B34" s="38" t="n">
         <v>45663</v>
       </c>
-      <c r="C34" s="40" t="n">
+      <c r="C34" s="38" t="n">
         <v>45668</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="20"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="40" t="n">
+      <c r="B35" s="38" t="n">
         <v>45670</v>
       </c>
-      <c r="C35" s="40" t="n">
+      <c r="C35" s="38" t="n">
         <v>45675</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="AL35" s="21"/>
-      <c r="AN35" s="22"/>
+      <c r="AL35" s="19"/>
+      <c r="AN35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="40" t="n">
+      <c r="B36" s="38" t="n">
         <v>45677</v>
       </c>
-      <c r="C36" s="40" t="n">
+      <c r="C36" s="38" t="n">
         <v>45682</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="AL36" s="21"/>
-      <c r="AN36" s="22"/>
+      <c r="AL36" s="19"/>
+      <c r="AN36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="40" t="n">
+      <c r="B37" s="38" t="n">
         <v>45684</v>
       </c>
-      <c r="C37" s="40" t="n">
+      <c r="C37" s="38" t="n">
         <v>45689</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="AL37" s="21"/>
-      <c r="AN37" s="22"/>
+      <c r="AL37" s="19"/>
+      <c r="AN37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="40" t="n">
+      <c r="B38" s="38" t="n">
         <v>45691</v>
       </c>
-      <c r="C38" s="40" t="n">
+      <c r="C38" s="38" t="n">
         <v>45696</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="AL38" s="21"/>
-      <c r="AN38" s="22"/>
+      <c r="AL38" s="19"/>
+      <c r="AN38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="40" t="n">
+      <c r="B39" s="38" t="n">
         <v>45698</v>
       </c>
-      <c r="C39" s="40" t="n">
+      <c r="C39" s="38" t="n">
         <v>45703</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="AL39" s="21"/>
-      <c r="AN39" s="22"/>
+      <c r="AL39" s="19"/>
+      <c r="AN39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B40" s="40" t="n">
+      <c r="B40" s="38" t="n">
         <v>45705</v>
       </c>
-      <c r="C40" s="40" t="n">
+      <c r="C40" s="38" t="n">
         <v>45710</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="AL40" s="21"/>
-      <c r="AN40" s="22"/>
+      <c r="AL40" s="19"/>
+      <c r="AN40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="40" t="n">
+      <c r="B41" s="38" t="n">
         <v>45712</v>
       </c>
-      <c r="C41" s="40" t="n">
+      <c r="C41" s="38" t="n">
         <v>45717</v>
       </c>
       <c r="D41" s="15"/>
-      <c r="AL41" s="21"/>
-      <c r="AN41" s="22"/>
+      <c r="AL41" s="19"/>
+      <c r="AN41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B42" s="40" t="n">
+      <c r="B42" s="38" t="n">
         <v>45719</v>
       </c>
-      <c r="C42" s="40" t="n">
+      <c r="C42" s="38" t="n">
         <v>45724</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="AL42" s="21"/>
-      <c r="AN42" s="22"/>
+      <c r="AL42" s="19"/>
+      <c r="AN42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B43" s="40" t="n">
+      <c r="B43" s="38" t="n">
         <v>45726</v>
       </c>
-      <c r="C43" s="40" t="n">
+      <c r="C43" s="38" t="n">
         <v>45731</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="AL43" s="21"/>
-      <c r="AN43" s="22"/>
+      <c r="AL43" s="19"/>
+      <c r="AN43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B44" s="40" t="n">
+      <c r="B44" s="38" t="n">
         <v>45733</v>
       </c>
-      <c r="C44" s="40" t="n">
+      <c r="C44" s="38" t="n">
         <v>45738</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="AL44" s="21"/>
-      <c r="AN44" s="22"/>
+      <c r="AL44" s="19"/>
+      <c r="AN44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B45" s="40" t="n">
+      <c r="B45" s="38" t="n">
         <v>45740</v>
       </c>
-      <c r="C45" s="40" t="n">
+      <c r="C45" s="38" t="n">
         <v>45745</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="AL45" s="21"/>
-      <c r="AN45" s="22"/>
+      <c r="AL45" s="19"/>
+      <c r="AN45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B46" s="40" t="n">
+      <c r="B46" s="38" t="n">
         <v>45747</v>
       </c>
-      <c r="C46" s="40" t="n">
+      <c r="C46" s="38" t="n">
         <v>45752</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="AL46" s="21"/>
-      <c r="AN46" s="22"/>
+      <c r="AL46" s="19"/>
+      <c r="AN46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B47" s="40" t="n">
+      <c r="B47" s="38" t="n">
         <v>45754</v>
       </c>
-      <c r="C47" s="40" t="n">
+      <c r="C47" s="38" t="n">
         <v>45759</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="AL47" s="21"/>
-      <c r="AN47" s="22"/>
+      <c r="AL47" s="19"/>
+      <c r="AN47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B48" s="40" t="n">
+      <c r="B48" s="38" t="n">
         <v>45761</v>
       </c>
-      <c r="C48" s="40" t="n">
+      <c r="C48" s="38" t="n">
         <v>45766</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="AL48" s="21"/>
-      <c r="AN48" s="22"/>
+      <c r="AL48" s="19"/>
+      <c r="AN48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B49" s="40" t="n">
+      <c r="B49" s="38" t="n">
         <v>45768</v>
       </c>
-      <c r="C49" s="40" t="n">
+      <c r="C49" s="38" t="n">
         <v>45773</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="AL49" s="21"/>
-      <c r="AN49" s="22"/>
+      <c r="AL49" s="19"/>
+      <c r="AN49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B50" s="40" t="n">
+      <c r="B50" s="38" t="n">
         <v>45775</v>
       </c>
-      <c r="C50" s="40" t="n">
+      <c r="C50" s="38" t="n">
         <v>45780</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="AL50" s="21"/>
-      <c r="AN50" s="22"/>
+      <c r="AL50" s="19"/>
+      <c r="AN50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B51" s="40" t="n">
+      <c r="B51" s="38" t="n">
         <v>45782</v>
       </c>
-      <c r="C51" s="40" t="n">
+      <c r="C51" s="38" t="n">
         <v>45787</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="AL51" s="21"/>
-      <c r="AN51" s="22"/>
+      <c r="AL51" s="19"/>
+      <c r="AN51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B52" s="40" t="n">
+      <c r="B52" s="38" t="n">
         <v>45789</v>
       </c>
-      <c r="C52" s="40" t="n">
+      <c r="C52" s="38" t="n">
         <v>45794</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="AL52" s="21"/>
-      <c r="AN52" s="22"/>
+      <c r="AL52" s="19"/>
+      <c r="AN52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B53" s="40" t="n">
+      <c r="B53" s="38" t="n">
         <v>45796</v>
       </c>
-      <c r="C53" s="40" t="n">
+      <c r="C53" s="38" t="n">
         <v>45801</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="25"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43" t="n">
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41" t="n">
         <f aca="false">SUM(E34:E53)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="44" t="n">
+      <c r="F54" s="42" t="n">
         <f aca="false">SUM(F34:F53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="43" t="n">
+      <c r="G54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="41" t="n">
         <f aca="false">SUM(H34:H53)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="44" t="n">
+      <c r="I54" s="42" t="n">
         <f aca="false">SUM(I34:I53)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="43" t="n">
+      <c r="J54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="41" t="n">
         <f aca="false">SUM(K34:K53)</f>
         <v>0</v>
       </c>
-      <c r="L54" s="44" t="n">
+      <c r="L54" s="42" t="n">
         <f aca="false">SUM(L34:L53)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="43" t="n">
+      <c r="M54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="41" t="n">
         <f aca="false">SUM(N34:N53)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="44" t="n">
+      <c r="O54" s="42" t="n">
         <f aca="false">SUM(O34:O53)</f>
         <v>0</v>
       </c>
-      <c r="P54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q54" s="43" t="n">
+      <c r="P54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="41" t="n">
         <f aca="false">SUM(Q34:Q53)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="44" t="n">
+      <c r="R54" s="42" t="n">
         <f aca="false">SUM(R34:R53)</f>
         <v>0</v>
       </c>
-      <c r="S54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="43" t="n">
+      <c r="S54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="41" t="n">
         <f aca="false">SUM(T34:T53)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="44" t="n">
+      <c r="U54" s="42" t="n">
         <f aca="false">SUM(U34:U53)</f>
         <v>0</v>
       </c>
-      <c r="V54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="W54" s="43" t="n">
+      <c r="V54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W54" s="41" t="n">
         <f aca="false">SUM(W34:W53)</f>
         <v>0</v>
       </c>
-      <c r="X54" s="44" t="n">
+      <c r="X54" s="42" t="n">
         <f aca="false">SUM(X34:X53)</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z54" s="43" t="n">
+      <c r="Y54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z54" s="41" t="n">
         <f aca="false">SUM(Z34:Z53)</f>
         <v>0</v>
       </c>
-      <c r="AA54" s="44" t="n">
+      <c r="AA54" s="42" t="n">
         <f aca="false">SUM(AA34:AA53)</f>
         <v>0</v>
       </c>
-      <c r="AB54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC54" s="43" t="n">
+      <c r="AB54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC54" s="41" t="n">
         <f aca="false">SUM(AC34:AC53)</f>
         <v>0</v>
       </c>
-      <c r="AD54" s="44" t="n">
+      <c r="AD54" s="42" t="n">
         <f aca="false">SUM(AD34:AD53)</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF54" s="43" t="n">
+      <c r="AE54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF54" s="41" t="n">
         <f aca="false">SUM(AF34:AF53)</f>
         <v>0</v>
       </c>
-      <c r="AG54" s="44" t="n">
+      <c r="AG54" s="42" t="n">
         <f aca="false">SUM(AG34:AG53)</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI54" s="43" t="n">
+      <c r="AH54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI54" s="41" t="n">
         <f aca="false">SUM(AI34:AI53)</f>
         <v>0</v>
       </c>
-      <c r="AJ54" s="44" t="n">
+      <c r="AJ54" s="42" t="n">
         <f aca="false">SUM(AJ34:AJ53)</f>
         <v>0</v>
       </c>
-      <c r="AK54" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL54" s="46"/>
+      <c r="AK54" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL54" s="44"/>
       <c r="AM54" s="12"/>
       <c r="AN54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="51"/>
-      <c r="AK55" s="50"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="48"/>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="48"/>
       <c r="AL55" s="11"/>
       <c r="AM55" s="12"/>
       <c r="AN55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53" t="n">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="51" t="n">
         <f aca="false">SUM(E54,H54,K54,N54,Q54,T54,W54,Z54,AC54,AF54,AI54)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="54" t="n">
+      <c r="F56" s="52" t="n">
         <f aca="false">SUM(F54,I54,L54,O54,R54,U54,X54,AA54,AD54,AG54,AJ54)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="57"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="60" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
@@ -2775,1031 +2227,491 @@
       <c r="A61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B61" s="40" t="n">
+      <c r="B61" s="38" t="n">
         <v>45663</v>
       </c>
-      <c r="C61" s="40" t="n">
+      <c r="C61" s="38" t="n">
         <v>45668</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="17"/>
-      <c r="AH61" s="16"/>
-      <c r="AI61" s="16"/>
-      <c r="AJ61" s="17"/>
-      <c r="AK61" s="16"/>
-      <c r="AL61" s="18"/>
-      <c r="AM61" s="19"/>
-      <c r="AN61" s="20"/>
+      <c r="AL61" s="16"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="40" t="n">
+      <c r="B62" s="38" t="n">
         <v>45670</v>
       </c>
-      <c r="C62" s="40" t="n">
+      <c r="C62" s="38" t="n">
         <v>45675</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="17"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="17"/>
-      <c r="AH62" s="16"/>
-      <c r="AI62" s="16"/>
-      <c r="AJ62" s="17"/>
-      <c r="AK62" s="16"/>
-      <c r="AL62" s="21"/>
-      <c r="AN62" s="22"/>
+      <c r="AL62" s="19"/>
+      <c r="AN62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="40" t="n">
+      <c r="B63" s="38" t="n">
         <v>45677</v>
       </c>
-      <c r="C63" s="40" t="n">
+      <c r="C63" s="38" t="n">
         <v>45682</v>
       </c>
       <c r="D63" s="15"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="17"/>
-      <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="17"/>
-      <c r="AH63" s="16"/>
-      <c r="AI63" s="16"/>
-      <c r="AJ63" s="17"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="21"/>
-      <c r="AN63" s="22"/>
+      <c r="AL63" s="19"/>
+      <c r="AN63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="40" t="n">
+      <c r="B64" s="38" t="n">
         <v>45684</v>
       </c>
-      <c r="C64" s="40" t="n">
+      <c r="C64" s="38" t="n">
         <v>45689</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="17"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="17"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="21"/>
-      <c r="AN64" s="22"/>
+      <c r="AL64" s="19"/>
+      <c r="AN64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B65" s="40" t="n">
+      <c r="B65" s="38" t="n">
         <v>45691</v>
       </c>
-      <c r="C65" s="40" t="n">
+      <c r="C65" s="38" t="n">
         <v>45696</v>
       </c>
       <c r="D65" s="15"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="16"/>
-      <c r="AI65" s="16"/>
-      <c r="AJ65" s="17"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="21"/>
-      <c r="AN65" s="22"/>
+      <c r="AL65" s="19"/>
+      <c r="AN65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="40" t="n">
+      <c r="B66" s="38" t="n">
         <v>45698</v>
       </c>
-      <c r="C66" s="40" t="n">
+      <c r="C66" s="38" t="n">
         <v>45703</v>
       </c>
       <c r="D66" s="15"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="16"/>
-      <c r="AF66" s="16"/>
-      <c r="AG66" s="17"/>
-      <c r="AH66" s="16"/>
-      <c r="AI66" s="16"/>
-      <c r="AJ66" s="17"/>
-      <c r="AK66" s="16"/>
-      <c r="AL66" s="21"/>
-      <c r="AN66" s="22"/>
+      <c r="AL66" s="19"/>
+      <c r="AN66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B67" s="40" t="n">
+      <c r="B67" s="38" t="n">
         <v>45705</v>
       </c>
-      <c r="C67" s="40" t="n">
+      <c r="C67" s="38" t="n">
         <v>45710</v>
       </c>
       <c r="D67" s="15"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
-      <c r="AD67" s="17"/>
-      <c r="AE67" s="16"/>
-      <c r="AF67" s="16"/>
-      <c r="AG67" s="17"/>
-      <c r="AH67" s="16"/>
-      <c r="AI67" s="16"/>
-      <c r="AJ67" s="17"/>
-      <c r="AK67" s="16"/>
-      <c r="AL67" s="21"/>
-      <c r="AN67" s="22"/>
+      <c r="AL67" s="19"/>
+      <c r="AN67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B68" s="40" t="n">
+      <c r="B68" s="38" t="n">
         <v>45712</v>
       </c>
-      <c r="C68" s="40" t="n">
+      <c r="C68" s="38" t="n">
         <v>45717</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="17"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="17"/>
-      <c r="AH68" s="16"/>
-      <c r="AI68" s="16"/>
-      <c r="AJ68" s="17"/>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="21"/>
-      <c r="AN68" s="22"/>
+      <c r="AL68" s="19"/>
+      <c r="AN68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B69" s="40" t="n">
+      <c r="B69" s="38" t="n">
         <v>45719</v>
       </c>
-      <c r="C69" s="40" t="n">
+      <c r="C69" s="38" t="n">
         <v>45724</v>
       </c>
       <c r="D69" s="15"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="17"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="17"/>
-      <c r="AE69" s="16"/>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="17"/>
-      <c r="AH69" s="16"/>
-      <c r="AI69" s="16"/>
-      <c r="AJ69" s="17"/>
-      <c r="AK69" s="16"/>
-      <c r="AL69" s="21"/>
-      <c r="AN69" s="22"/>
+      <c r="AL69" s="19"/>
+      <c r="AN69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B70" s="40" t="n">
+      <c r="B70" s="38" t="n">
         <v>45726</v>
       </c>
-      <c r="C70" s="40" t="n">
+      <c r="C70" s="38" t="n">
         <v>45731</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="17"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="17"/>
-      <c r="AH70" s="16"/>
-      <c r="AI70" s="16"/>
-      <c r="AJ70" s="17"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="21"/>
-      <c r="AN70" s="22"/>
+      <c r="AL70" s="19"/>
+      <c r="AN70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B71" s="40" t="n">
+      <c r="B71" s="38" t="n">
         <v>45733</v>
       </c>
-      <c r="C71" s="40" t="n">
+      <c r="C71" s="38" t="n">
         <v>45738</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="17"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="17"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="17"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="21"/>
-      <c r="AN71" s="22"/>
+      <c r="AL71" s="19"/>
+      <c r="AN71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B72" s="40" t="n">
+      <c r="B72" s="38" t="n">
         <v>45740</v>
       </c>
-      <c r="C72" s="40" t="n">
+      <c r="C72" s="38" t="n">
         <v>45745</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="17"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="17"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="17"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="21"/>
-      <c r="AN72" s="22"/>
+      <c r="AL72" s="19"/>
+      <c r="AN72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B73" s="40" t="n">
+      <c r="B73" s="38" t="n">
         <v>45747</v>
       </c>
-      <c r="C73" s="40" t="n">
+      <c r="C73" s="38" t="n">
         <v>45752</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="17"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="17"/>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="17"/>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
-      <c r="AJ73" s="17"/>
-      <c r="AK73" s="16"/>
-      <c r="AL73" s="21"/>
-      <c r="AN73" s="22"/>
+      <c r="AL73" s="19"/>
+      <c r="AN73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B74" s="40" t="n">
+      <c r="B74" s="38" t="n">
         <v>45754</v>
       </c>
-      <c r="C74" s="40" t="n">
+      <c r="C74" s="38" t="n">
         <v>45759</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="16"/>
-      <c r="AF74" s="16"/>
-      <c r="AG74" s="17"/>
-      <c r="AH74" s="16"/>
-      <c r="AI74" s="16"/>
-      <c r="AJ74" s="17"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="21"/>
-      <c r="AN74" s="22"/>
+      <c r="AL74" s="19"/>
+      <c r="AN74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B75" s="40" t="n">
+      <c r="B75" s="38" t="n">
         <v>45761</v>
       </c>
-      <c r="C75" s="40" t="n">
+      <c r="C75" s="38" t="n">
         <v>45766</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="16"/>
-      <c r="AF75" s="16"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="16"/>
-      <c r="AI75" s="16"/>
-      <c r="AJ75" s="17"/>
-      <c r="AK75" s="16"/>
-      <c r="AL75" s="21"/>
-      <c r="AN75" s="22"/>
+      <c r="AL75" s="19"/>
+      <c r="AN75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B76" s="40" t="n">
+      <c r="B76" s="38" t="n">
         <v>45768</v>
       </c>
-      <c r="C76" s="40" t="n">
+      <c r="C76" s="38" t="n">
         <v>45773</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="17"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
-      <c r="AD76" s="17"/>
-      <c r="AE76" s="16"/>
-      <c r="AF76" s="16"/>
-      <c r="AG76" s="17"/>
-      <c r="AH76" s="16"/>
-      <c r="AI76" s="16"/>
-      <c r="AJ76" s="17"/>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="21"/>
-      <c r="AN76" s="22"/>
+      <c r="AL76" s="19"/>
+      <c r="AN76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B77" s="40" t="n">
+      <c r="B77" s="38" t="n">
         <v>45775</v>
       </c>
-      <c r="C77" s="40" t="n">
+      <c r="C77" s="38" t="n">
         <v>45780</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="17"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="17"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="17"/>
-      <c r="AH77" s="16"/>
-      <c r="AI77" s="16"/>
-      <c r="AJ77" s="17"/>
-      <c r="AK77" s="16"/>
-      <c r="AL77" s="21"/>
-      <c r="AN77" s="22"/>
+      <c r="AL77" s="19"/>
+      <c r="AN77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B78" s="40" t="n">
+      <c r="B78" s="38" t="n">
         <v>45782</v>
       </c>
-      <c r="C78" s="40" t="n">
+      <c r="C78" s="38" t="n">
         <v>45787</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="17"/>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="16"/>
-      <c r="AD78" s="17"/>
-      <c r="AE78" s="16"/>
-      <c r="AF78" s="16"/>
-      <c r="AG78" s="17"/>
-      <c r="AH78" s="16"/>
-      <c r="AI78" s="16"/>
-      <c r="AJ78" s="17"/>
-      <c r="AK78" s="16"/>
-      <c r="AL78" s="21"/>
-      <c r="AN78" s="22"/>
+      <c r="AL78" s="19"/>
+      <c r="AN78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B79" s="40" t="n">
+      <c r="B79" s="38" t="n">
         <v>45789</v>
       </c>
-      <c r="C79" s="40" t="n">
+      <c r="C79" s="38" t="n">
         <v>45794</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="17"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="17"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16"/>
-      <c r="AD79" s="17"/>
-      <c r="AE79" s="16"/>
-      <c r="AF79" s="16"/>
-      <c r="AG79" s="17"/>
-      <c r="AH79" s="16"/>
-      <c r="AI79" s="16"/>
-      <c r="AJ79" s="17"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="21"/>
-      <c r="AN79" s="22"/>
+      <c r="AL79" s="19"/>
+      <c r="AN79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B80" s="40" t="n">
+      <c r="B80" s="38" t="n">
         <v>45796</v>
       </c>
-      <c r="C80" s="40" t="n">
+      <c r="C80" s="38" t="n">
         <v>45801</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="17"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="17"/>
-      <c r="AE80" s="16"/>
-      <c r="AF80" s="16"/>
-      <c r="AG80" s="17"/>
-      <c r="AH80" s="16"/>
-      <c r="AI80" s="16"/>
-      <c r="AJ80" s="17"/>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="23"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="25"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="22"/>
+      <c r="AN80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43" t="n">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41" t="n">
         <f aca="false">SUM(E61:E80)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="44" t="n">
+      <c r="F81" s="42" t="n">
         <f aca="false">SUM(F61:F80)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="43" t="n">
+      <c r="G81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="41" t="n">
         <f aca="false">SUM(H61:H80)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="44" t="n">
+      <c r="I81" s="42" t="n">
         <f aca="false">SUM(I61:I80)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="43" t="n">
+      <c r="J81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="41" t="n">
         <f aca="false">SUM(K61:K80)</f>
         <v>0</v>
       </c>
-      <c r="L81" s="44" t="n">
+      <c r="L81" s="42" t="n">
         <f aca="false">SUM(L61:L80)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="43" t="n">
+      <c r="M81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="41" t="n">
         <f aca="false">SUM(N61:N80)</f>
         <v>0</v>
       </c>
-      <c r="O81" s="44" t="n">
+      <c r="O81" s="42" t="n">
         <f aca="false">SUM(O61:O80)</f>
         <v>0</v>
       </c>
-      <c r="P81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q81" s="43" t="n">
+      <c r="P81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="41" t="n">
         <f aca="false">SUM(Q61:Q80)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="44" t="n">
+      <c r="R81" s="42" t="n">
         <f aca="false">SUM(R61:R80)</f>
         <v>0</v>
       </c>
-      <c r="S81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="43" t="n">
+      <c r="S81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81" s="41" t="n">
         <f aca="false">SUM(T61:T80)</f>
         <v>0</v>
       </c>
-      <c r="U81" s="44" t="n">
+      <c r="U81" s="42" t="n">
         <f aca="false">SUM(U61:U80)</f>
         <v>0</v>
       </c>
-      <c r="V81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="W81" s="43" t="n">
+      <c r="V81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W81" s="41" t="n">
         <f aca="false">SUM(W61:W80)</f>
         <v>0</v>
       </c>
-      <c r="X81" s="44" t="n">
+      <c r="X81" s="42" t="n">
         <f aca="false">SUM(X61:X80)</f>
         <v>0</v>
       </c>
-      <c r="Y81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z81" s="43" t="n">
+      <c r="Y81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z81" s="41" t="n">
         <f aca="false">SUM(Z61:Z80)</f>
         <v>0</v>
       </c>
-      <c r="AA81" s="44" t="n">
+      <c r="AA81" s="42" t="n">
         <f aca="false">SUM(AA61:AA80)</f>
         <v>0</v>
       </c>
-      <c r="AB81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC81" s="43" t="n">
+      <c r="AB81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC81" s="41" t="n">
         <f aca="false">SUM(AC61:AC80)</f>
         <v>0</v>
       </c>
-      <c r="AD81" s="44" t="n">
+      <c r="AD81" s="42" t="n">
         <f aca="false">SUM(AD61:AD80)</f>
         <v>0</v>
       </c>
-      <c r="AE81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF81" s="43" t="n">
+      <c r="AE81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF81" s="41" t="n">
         <f aca="false">SUM(AF61:AF80)</f>
         <v>0</v>
       </c>
-      <c r="AG81" s="44" t="n">
+      <c r="AG81" s="42" t="n">
         <f aca="false">SUM(AG61:AG80)</f>
         <v>0</v>
       </c>
-      <c r="AH81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI81" s="43" t="n">
+      <c r="AH81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI81" s="41" t="n">
         <f aca="false">SUM(AI61:AI80)</f>
         <v>0</v>
       </c>
-      <c r="AJ81" s="44" t="n">
+      <c r="AJ81" s="42" t="n">
         <f aca="false">SUM(AJ61:AJ80)</f>
         <v>0</v>
       </c>
-      <c r="AK81" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL81" s="46"/>
-      <c r="AM81" s="59"/>
-      <c r="AN81" s="46"/>
+      <c r="AK81" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL81" s="44"/>
+      <c r="AM81" s="57"/>
+      <c r="AN81" s="44"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="50"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="50"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="49"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="48"/>
-      <c r="X82" s="49"/>
-      <c r="Y82" s="50"/>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="49"/>
-      <c r="AB82" s="50"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="49"/>
-      <c r="AE82" s="50"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="49"/>
-      <c r="AH82" s="50"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="49"/>
-      <c r="AK82" s="50"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="46"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="48"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="48"/>
+      <c r="AI82" s="46"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="48"/>
       <c r="AL82" s="11"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53" t="n">
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="51" t="n">
         <f aca="false">SUM(E81,H81,K81,N81,Q81,T81,W81,Z81,AC81,AF81,AI81)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="54" t="n">
+      <c r="F83" s="52" t="n">
         <f aca="false">SUM(F81,I81,L81,O81,R81,U81,X81,AA81,AD81,AG81,AJ81)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="57"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="55"/>
     </row>
     <row r="87" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
@@ -3849,832 +2761,412 @@
       <c r="A88" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B88" s="40" t="n">
+      <c r="B88" s="38" t="n">
         <v>45663</v>
       </c>
-      <c r="C88" s="40" t="n">
+      <c r="C88" s="38" t="n">
         <v>45668</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="16"/>
-      <c r="AL88" s="18"/>
-      <c r="AM88" s="19"/>
-      <c r="AN88" s="20"/>
+      <c r="AL88" s="16"/>
+      <c r="AM88" s="17"/>
+      <c r="AN88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B89" s="40" t="n">
+      <c r="B89" s="38" t="n">
         <v>45670</v>
       </c>
-      <c r="C89" s="40" t="n">
+      <c r="C89" s="38" t="n">
         <v>45675</v>
       </c>
       <c r="D89" s="15"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="16"/>
-      <c r="AL89" s="21"/>
-      <c r="AN89" s="22"/>
+      <c r="AL89" s="19"/>
+      <c r="AN89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B90" s="40" t="n">
+      <c r="B90" s="38" t="n">
         <v>45677</v>
       </c>
-      <c r="C90" s="40" t="n">
+      <c r="C90" s="38" t="n">
         <v>45682</v>
       </c>
       <c r="D90" s="15"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="16"/>
-      <c r="AL90" s="21"/>
-      <c r="AN90" s="22"/>
+      <c r="AL90" s="19"/>
+      <c r="AN90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B91" s="40" t="n">
+      <c r="B91" s="38" t="n">
         <v>45684</v>
       </c>
-      <c r="C91" s="40" t="n">
+      <c r="C91" s="38" t="n">
         <v>45689</v>
       </c>
       <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="16"/>
-      <c r="AL91" s="21"/>
-      <c r="AN91" s="22"/>
+      <c r="AL91" s="19"/>
+      <c r="AN91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B92" s="40" t="n">
+      <c r="B92" s="38" t="n">
         <v>45691</v>
       </c>
-      <c r="C92" s="40" t="n">
+      <c r="C92" s="38" t="n">
         <v>45696</v>
       </c>
       <c r="D92" s="15"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="16"/>
-      <c r="W92" s="16"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="16"/>
-      <c r="AL92" s="21"/>
-      <c r="AN92" s="22"/>
+      <c r="AL92" s="19"/>
+      <c r="AN92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="40" t="n">
+      <c r="B93" s="38" t="n">
         <v>45698</v>
       </c>
-      <c r="C93" s="40" t="n">
+      <c r="C93" s="38" t="n">
         <v>45703</v>
       </c>
       <c r="D93" s="15"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="16"/>
-      <c r="AL93" s="21"/>
-      <c r="AN93" s="22"/>
+      <c r="AL93" s="19"/>
+      <c r="AN93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B94" s="40" t="n">
+      <c r="B94" s="38" t="n">
         <v>45705</v>
       </c>
-      <c r="C94" s="40" t="n">
+      <c r="C94" s="38" t="n">
         <v>45710</v>
       </c>
       <c r="D94" s="15"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="16"/>
-      <c r="AL94" s="21"/>
-      <c r="AN94" s="22"/>
+      <c r="AL94" s="19"/>
+      <c r="AN94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="40" t="n">
+      <c r="B95" s="38" t="n">
         <v>45712</v>
       </c>
-      <c r="C95" s="40" t="n">
+      <c r="C95" s="38" t="n">
         <v>45717</v>
       </c>
       <c r="D95" s="15"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="16"/>
-      <c r="AL95" s="21"/>
-      <c r="AN95" s="22"/>
+      <c r="AL95" s="19"/>
+      <c r="AN95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B96" s="40" t="n">
+      <c r="B96" s="38" t="n">
         <v>45719</v>
       </c>
-      <c r="C96" s="40" t="n">
+      <c r="C96" s="38" t="n">
         <v>45724</v>
       </c>
       <c r="D96" s="15"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="16"/>
-      <c r="W96" s="16"/>
-      <c r="X96" s="17"/>
-      <c r="Y96" s="16"/>
-      <c r="AL96" s="21"/>
-      <c r="AN96" s="22"/>
+      <c r="AL96" s="19"/>
+      <c r="AN96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B97" s="40" t="n">
+      <c r="B97" s="38" t="n">
         <v>45726</v>
       </c>
-      <c r="C97" s="40" t="n">
+      <c r="C97" s="38" t="n">
         <v>45731</v>
       </c>
       <c r="D97" s="15"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="16"/>
-      <c r="W97" s="16"/>
-      <c r="X97" s="17"/>
-      <c r="Y97" s="16"/>
-      <c r="AL97" s="21"/>
-      <c r="AN97" s="22"/>
+      <c r="AL97" s="19"/>
+      <c r="AN97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B98" s="40" t="n">
+      <c r="B98" s="38" t="n">
         <v>45733</v>
       </c>
-      <c r="C98" s="40" t="n">
+      <c r="C98" s="38" t="n">
         <v>45738</v>
       </c>
       <c r="D98" s="15"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="16"/>
-      <c r="AL98" s="21"/>
-      <c r="AN98" s="22"/>
+      <c r="AL98" s="19"/>
+      <c r="AN98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B99" s="40" t="n">
+      <c r="B99" s="38" t="n">
         <v>45740</v>
       </c>
-      <c r="C99" s="40" t="n">
+      <c r="C99" s="38" t="n">
         <v>45745</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="16"/>
-      <c r="AL99" s="21"/>
-      <c r="AN99" s="22"/>
+      <c r="AL99" s="19"/>
+      <c r="AN99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B100" s="40" t="n">
+      <c r="B100" s="38" t="n">
         <v>45747</v>
       </c>
-      <c r="C100" s="40" t="n">
+      <c r="C100" s="38" t="n">
         <v>45752</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="17"/>
-      <c r="Y100" s="16"/>
-      <c r="AL100" s="21"/>
-      <c r="AN100" s="22"/>
+      <c r="AL100" s="19"/>
+      <c r="AN100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B101" s="40" t="n">
+      <c r="B101" s="38" t="n">
         <v>45754</v>
       </c>
-      <c r="C101" s="40" t="n">
+      <c r="C101" s="38" t="n">
         <v>45759</v>
       </c>
       <c r="D101" s="15"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="16"/>
-      <c r="AL101" s="21"/>
-      <c r="AN101" s="22"/>
+      <c r="AL101" s="19"/>
+      <c r="AN101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B102" s="40" t="n">
+      <c r="B102" s="38" t="n">
         <v>45761</v>
       </c>
-      <c r="C102" s="40" t="n">
+      <c r="C102" s="38" t="n">
         <v>45766</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-      <c r="U102" s="17"/>
-      <c r="V102" s="16"/>
-      <c r="W102" s="16"/>
-      <c r="X102" s="17"/>
-      <c r="Y102" s="16"/>
-      <c r="AL102" s="21"/>
-      <c r="AN102" s="22"/>
+      <c r="AL102" s="19"/>
+      <c r="AN102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B103" s="40" t="n">
+      <c r="B103" s="38" t="n">
         <v>45768</v>
       </c>
-      <c r="C103" s="40" t="n">
+      <c r="C103" s="38" t="n">
         <v>45773</v>
       </c>
       <c r="D103" s="15"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="16"/>
-      <c r="W103" s="16"/>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="16"/>
-      <c r="AL103" s="21"/>
-      <c r="AN103" s="22"/>
+      <c r="AL103" s="19"/>
+      <c r="AN103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B104" s="40" t="n">
+      <c r="B104" s="38" t="n">
         <v>45775</v>
       </c>
-      <c r="C104" s="40" t="n">
+      <c r="C104" s="38" t="n">
         <v>45780</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="16"/>
-      <c r="AL104" s="21"/>
-      <c r="AN104" s="22"/>
+      <c r="AL104" s="19"/>
+      <c r="AN104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B105" s="40" t="n">
+      <c r="B105" s="38" t="n">
         <v>45782</v>
       </c>
-      <c r="C105" s="40" t="n">
+      <c r="C105" s="38" t="n">
         <v>45787</v>
       </c>
       <c r="D105" s="15"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="16"/>
-      <c r="T105" s="16"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="16"/>
-      <c r="W105" s="16"/>
-      <c r="X105" s="17"/>
-      <c r="Y105" s="16"/>
-      <c r="AL105" s="21"/>
-      <c r="AN105" s="22"/>
+      <c r="AL105" s="19"/>
+      <c r="AN105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B106" s="40" t="n">
+      <c r="B106" s="38" t="n">
         <v>45789</v>
       </c>
-      <c r="C106" s="40" t="n">
+      <c r="C106" s="38" t="n">
         <v>45794</v>
       </c>
       <c r="D106" s="15"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="16"/>
-      <c r="T106" s="16"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="16"/>
-      <c r="W106" s="16"/>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="16"/>
-      <c r="AL106" s="21"/>
-      <c r="AN106" s="22"/>
+      <c r="AL106" s="19"/>
+      <c r="AN106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B107" s="40" t="n">
+      <c r="B107" s="38" t="n">
         <v>45796</v>
       </c>
-      <c r="C107" s="40" t="n">
+      <c r="C107" s="38" t="n">
         <v>45801</v>
       </c>
       <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="16"/>
-      <c r="T107" s="16"/>
-      <c r="U107" s="17"/>
-      <c r="V107" s="16"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="16"/>
-      <c r="AL107" s="23"/>
-      <c r="AM107" s="24"/>
-      <c r="AN107" s="25"/>
+      <c r="AL107" s="21"/>
+      <c r="AM107" s="22"/>
+      <c r="AN107" s="23"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="43" t="n">
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41" t="n">
         <f aca="false">SUM(E88:E107)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="44" t="n">
+      <c r="F108" s="42" t="n">
         <f aca="false">SUM(F88:F107)</f>
         <v>0</v>
       </c>
-      <c r="G108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" s="43" t="n">
+      <c r="G108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="41" t="n">
         <f aca="false">SUM(H88:H107)</f>
         <v>0</v>
       </c>
-      <c r="I108" s="44" t="n">
+      <c r="I108" s="42" t="n">
         <f aca="false">SUM(I88:I107)</f>
         <v>0</v>
       </c>
-      <c r="J108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" s="43" t="n">
+      <c r="J108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="41" t="n">
         <f aca="false">SUM(K88:K107)</f>
         <v>0</v>
       </c>
-      <c r="L108" s="44" t="n">
+      <c r="L108" s="42" t="n">
         <f aca="false">SUM(L88:L107)</f>
         <v>0</v>
       </c>
-      <c r="M108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N108" s="43" t="n">
+      <c r="M108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N108" s="41" t="n">
         <f aca="false">SUM(N88:N107)</f>
         <v>0</v>
       </c>
-      <c r="O108" s="44" t="n">
+      <c r="O108" s="42" t="n">
         <f aca="false">SUM(O88:O107)</f>
         <v>0</v>
       </c>
-      <c r="P108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q108" s="43" t="n">
+      <c r="P108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q108" s="41" t="n">
         <f aca="false">SUM(Q88:Q107)</f>
         <v>0</v>
       </c>
-      <c r="R108" s="44" t="n">
+      <c r="R108" s="42" t="n">
         <f aca="false">SUM(R88:R107)</f>
         <v>0</v>
       </c>
-      <c r="S108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="T108" s="43" t="n">
+      <c r="S108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="T108" s="41" t="n">
         <f aca="false">SUM(T88:T107)</f>
         <v>0</v>
       </c>
-      <c r="U108" s="44" t="n">
+      <c r="U108" s="42" t="n">
         <f aca="false">SUM(U88:U107)</f>
         <v>0</v>
       </c>
-      <c r="V108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="W108" s="43" t="n">
+      <c r="V108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W108" s="41" t="n">
         <f aca="false">SUM(W88:W107)</f>
         <v>0</v>
       </c>
-      <c r="X108" s="44" t="n">
+      <c r="X108" s="42" t="n">
         <f aca="false">SUM(X88:X107)</f>
         <v>0</v>
       </c>
-      <c r="Y108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z108" s="43" t="n">
+      <c r="Y108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z108" s="41" t="n">
         <f aca="false">SUM(Z88:Z107)</f>
         <v>0</v>
       </c>
-      <c r="AA108" s="44" t="n">
+      <c r="AA108" s="42" t="n">
         <f aca="false">SUM(AA88:AA107)</f>
         <v>0</v>
       </c>
-      <c r="AB108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC108" s="43" t="n">
+      <c r="AB108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC108" s="41" t="n">
         <f aca="false">SUM(AC88:AC107)</f>
         <v>0</v>
       </c>
-      <c r="AD108" s="44" t="n">
+      <c r="AD108" s="42" t="n">
         <f aca="false">SUM(AD88:AD107)</f>
         <v>0</v>
       </c>
-      <c r="AE108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF108" s="43" t="n">
+      <c r="AE108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF108" s="41" t="n">
         <f aca="false">SUM(AF88:AF107)</f>
         <v>0</v>
       </c>
-      <c r="AG108" s="44" t="n">
+      <c r="AG108" s="42" t="n">
         <f aca="false">SUM(AG88:AG107)</f>
         <v>0</v>
       </c>
-      <c r="AH108" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI108" s="43" t="n">
+      <c r="AH108" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI108" s="41" t="n">
         <f aca="false">SUM(AI88:AI107)</f>
         <v>0</v>
       </c>
-      <c r="AJ108" s="44" t="n">
+      <c r="AJ108" s="42" t="n">
         <f aca="false">SUM(AJ88:AJ107)</f>
         <v>0</v>
       </c>
-      <c r="AK108" s="45" t="s">
+      <c r="AK108" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AL108" s="11"/>
@@ -4682,78 +3174,78 @@
       <c r="AN108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="48"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="48"/>
-      <c r="R109" s="49"/>
-      <c r="S109" s="50"/>
-      <c r="T109" s="48"/>
-      <c r="U109" s="49"/>
-      <c r="V109" s="50"/>
-      <c r="W109" s="48"/>
-      <c r="X109" s="49"/>
-      <c r="Y109" s="50"/>
-      <c r="Z109" s="48"/>
-      <c r="AA109" s="49"/>
-      <c r="AB109" s="50"/>
-      <c r="AC109" s="48"/>
-      <c r="AD109" s="49"/>
-      <c r="AE109" s="50"/>
-      <c r="AF109" s="48"/>
-      <c r="AG109" s="49"/>
-      <c r="AH109" s="50"/>
-      <c r="AI109" s="48"/>
-      <c r="AJ109" s="49"/>
-      <c r="AK109" s="50"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="47"/>
+      <c r="M109" s="48"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="47"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="47"/>
+      <c r="V109" s="48"/>
+      <c r="W109" s="46"/>
+      <c r="X109" s="47"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="46"/>
+      <c r="AA109" s="47"/>
+      <c r="AB109" s="48"/>
+      <c r="AC109" s="46"/>
+      <c r="AD109" s="47"/>
+      <c r="AE109" s="48"/>
+      <c r="AF109" s="46"/>
+      <c r="AG109" s="47"/>
+      <c r="AH109" s="48"/>
+      <c r="AI109" s="46"/>
+      <c r="AJ109" s="47"/>
+      <c r="AK109" s="48"/>
       <c r="AL109" s="11"/>
       <c r="AM109" s="12"/>
       <c r="AN109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="53" t="n">
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="51" t="n">
         <f aca="false">SUM(E108,H108,K108,N108,Q108,T108,W108,Z108,AC108,AF108,AI108)</f>
         <v>0</v>
       </c>
-      <c r="F110" s="54" t="n">
+      <c r="F110" s="52" t="n">
         <f aca="false">SUM(F108,I108,L108,O108,R108,U108,X108,AA108,AD108,AG108,AJ108)</f>
         <v>0</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="57"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="55"/>
     </row>
     <row r="114" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
@@ -4770,10 +3262,10 @@
       <c r="A115" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B115" s="40" t="n">
+      <c r="B115" s="38" t="n">
         <v>45663</v>
       </c>
-      <c r="C115" s="40" t="n">
+      <c r="C115" s="38" t="n">
         <v>45668</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -4784,10 +3276,10 @@
       <c r="A116" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B116" s="40" t="n">
+      <c r="B116" s="38" t="n">
         <v>45670</v>
       </c>
-      <c r="C116" s="40" t="n">
+      <c r="C116" s="38" t="n">
         <v>45675</v>
       </c>
       <c r="D116" s="15"/>
@@ -4796,10 +3288,10 @@
       <c r="A117" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B117" s="40" t="n">
+      <c r="B117" s="38" t="n">
         <v>45677</v>
       </c>
-      <c r="C117" s="40" t="n">
+      <c r="C117" s="38" t="n">
         <v>45682</v>
       </c>
       <c r="D117" s="15"/>
@@ -4808,10 +3300,10 @@
       <c r="A118" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B118" s="40" t="n">
+      <c r="B118" s="38" t="n">
         <v>45684</v>
       </c>
-      <c r="C118" s="40" t="n">
+      <c r="C118" s="38" t="n">
         <v>45689</v>
       </c>
       <c r="D118" s="15"/>
@@ -4820,10 +3312,10 @@
       <c r="A119" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="40" t="n">
+      <c r="B119" s="38" t="n">
         <v>45691</v>
       </c>
-      <c r="C119" s="40" t="n">
+      <c r="C119" s="38" t="n">
         <v>45696</v>
       </c>
       <c r="D119" s="15"/>
@@ -4832,10 +3324,10 @@
       <c r="A120" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B120" s="40" t="n">
+      <c r="B120" s="38" t="n">
         <v>45698</v>
       </c>
-      <c r="C120" s="40" t="n">
+      <c r="C120" s="38" t="n">
         <v>45703</v>
       </c>
       <c r="D120" s="15"/>
@@ -4844,10 +3336,10 @@
       <c r="A121" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="40" t="n">
+      <c r="B121" s="38" t="n">
         <v>45705</v>
       </c>
-      <c r="C121" s="40" t="n">
+      <c r="C121" s="38" t="n">
         <v>45710</v>
       </c>
       <c r="D121" s="15"/>
@@ -4856,10 +3348,10 @@
       <c r="A122" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B122" s="40" t="n">
+      <c r="B122" s="38" t="n">
         <v>45712</v>
       </c>
-      <c r="C122" s="40" t="n">
+      <c r="C122" s="38" t="n">
         <v>45717</v>
       </c>
       <c r="D122" s="15"/>
@@ -4868,10 +3360,10 @@
       <c r="A123" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B123" s="40" t="n">
+      <c r="B123" s="38" t="n">
         <v>45719</v>
       </c>
-      <c r="C123" s="40" t="n">
+      <c r="C123" s="38" t="n">
         <v>45724</v>
       </c>
       <c r="D123" s="15"/>
@@ -4880,10 +3372,10 @@
       <c r="A124" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B124" s="40" t="n">
+      <c r="B124" s="38" t="n">
         <v>45726</v>
       </c>
-      <c r="C124" s="40" t="n">
+      <c r="C124" s="38" t="n">
         <v>45731</v>
       </c>
       <c r="D124" s="15"/>
@@ -4892,10 +3384,10 @@
       <c r="A125" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="40" t="n">
+      <c r="B125" s="38" t="n">
         <v>45733</v>
       </c>
-      <c r="C125" s="40" t="n">
+      <c r="C125" s="38" t="n">
         <v>45738</v>
       </c>
       <c r="D125" s="15"/>
@@ -4904,10 +3396,10 @@
       <c r="A126" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B126" s="40" t="n">
+      <c r="B126" s="38" t="n">
         <v>45740</v>
       </c>
-      <c r="C126" s="40" t="n">
+      <c r="C126" s="38" t="n">
         <v>45745</v>
       </c>
       <c r="D126" s="15"/>
@@ -4916,10 +3408,10 @@
       <c r="A127" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B127" s="40" t="n">
+      <c r="B127" s="38" t="n">
         <v>45747</v>
       </c>
-      <c r="C127" s="40" t="n">
+      <c r="C127" s="38" t="n">
         <v>45752</v>
       </c>
       <c r="D127" s="15"/>
@@ -4928,10 +3420,10 @@
       <c r="A128" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="40" t="n">
+      <c r="B128" s="38" t="n">
         <v>45754</v>
       </c>
-      <c r="C128" s="40" t="n">
+      <c r="C128" s="38" t="n">
         <v>45759</v>
       </c>
       <c r="D128" s="15"/>
@@ -4940,10 +3432,10 @@
       <c r="A129" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B129" s="40" t="n">
+      <c r="B129" s="38" t="n">
         <v>45761</v>
       </c>
-      <c r="C129" s="40" t="n">
+      <c r="C129" s="38" t="n">
         <v>45766</v>
       </c>
       <c r="D129" s="15"/>
@@ -4952,10 +3444,10 @@
       <c r="A130" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B130" s="40" t="n">
+      <c r="B130" s="38" t="n">
         <v>45768</v>
       </c>
-      <c r="C130" s="40" t="n">
+      <c r="C130" s="38" t="n">
         <v>45773</v>
       </c>
       <c r="D130" s="15"/>
@@ -4964,10 +3456,10 @@
       <c r="A131" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B131" s="40" t="n">
+      <c r="B131" s="38" t="n">
         <v>45775</v>
       </c>
-      <c r="C131" s="40" t="n">
+      <c r="C131" s="38" t="n">
         <v>45780</v>
       </c>
       <c r="D131" s="15"/>
@@ -4976,10 +3468,10 @@
       <c r="A132" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B132" s="40" t="n">
+      <c r="B132" s="38" t="n">
         <v>45782</v>
       </c>
-      <c r="C132" s="40" t="n">
+      <c r="C132" s="38" t="n">
         <v>45787</v>
       </c>
       <c r="D132" s="15"/>
@@ -4988,10 +3480,10 @@
       <c r="A133" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B133" s="40" t="n">
+      <c r="B133" s="38" t="n">
         <v>45789</v>
       </c>
-      <c r="C133" s="40" t="n">
+      <c r="C133" s="38" t="n">
         <v>45794</v>
       </c>
       <c r="D133" s="15"/>
@@ -5000,43 +3492,43 @@
       <c r="A134" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B134" s="40" t="n">
+      <c r="B134" s="38" t="n">
         <v>45796</v>
       </c>
-      <c r="C134" s="40" t="n">
+      <c r="C134" s="38" t="n">
         <v>45801</v>
       </c>
       <c r="D134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="41" t="s">
+      <c r="A135" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="53" t="n">
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="51" t="n">
         <f aca="false">SUM(E115:E134)</f>
         <v>0</v>
       </c>
-      <c r="F135" s="54" t="n">
+      <c r="F135" s="52" t="n">
         <f aca="false">SUM(F115:F134)</f>
         <v>0</v>
       </c>
-      <c r="G135" s="55" t="s">
+      <c r="G135" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="56" t="s">
+      <c r="A136" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="58"/>
-      <c r="G136" s="57"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="55"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5063,358 +3555,358 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="60" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="58" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="63" t="n">
+      <c r="B3" s="61" t="n">
         <v>45299</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="63" t="n">
+      <c r="B4" s="61" t="n">
         <v>45420</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="62"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="64"/>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="40" t="n">
+      <c r="A9" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="38" t="n">
         <f aca="false">B10-7</f>
         <v>45292</v>
       </c>
-      <c r="C9" s="40" t="n">
+      <c r="C9" s="38" t="n">
         <f aca="false">C10-7</f>
         <v>45297</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="F9" s="61" t="s">
+      <c r="D9" s="60"/>
+      <c r="F9" s="59" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="n">
+      <c r="A10" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="38" t="n">
         <f aca="false">B3-WEEKDAY(B3,3)</f>
         <v>45299</v>
       </c>
-      <c r="C10" s="40" t="n">
+      <c r="C10" s="38" t="n">
         <f aca="false">B10+5</f>
         <v>45304</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="F10" s="61" t="s">
+      <c r="D10" s="60"/>
+      <c r="F10" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="n">
+      <c r="A11" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="38" t="n">
         <f aca="false">B10+7</f>
         <v>45306</v>
       </c>
-      <c r="C11" s="40" t="n">
+      <c r="C11" s="38" t="n">
         <f aca="false">B11+5</f>
         <v>45311</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="n">
+      <c r="A12" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="38" t="n">
         <f aca="false">B11+7</f>
         <v>45313</v>
       </c>
-      <c r="C12" s="40" t="n">
+      <c r="C12" s="38" t="n">
         <f aca="false">B12+5</f>
         <v>45318</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="n">
+      <c r="A13" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="40" t="n">
+      <c r="B13" s="38" t="n">
         <f aca="false">B12+7</f>
         <v>45320</v>
       </c>
-      <c r="C13" s="40" t="n">
+      <c r="C13" s="38" t="n">
         <f aca="false">B13+5</f>
         <v>45325</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="n">
+      <c r="A14" s="63" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="40" t="n">
+      <c r="B14" s="38" t="n">
         <f aca="false">B13+7</f>
         <v>45327</v>
       </c>
-      <c r="C14" s="40" t="n">
+      <c r="C14" s="38" t="n">
         <f aca="false">B14+5</f>
         <v>45332</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="n">
+      <c r="A15" s="63" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="40" t="n">
+      <c r="B15" s="38" t="n">
         <f aca="false">B14+7</f>
         <v>45334</v>
       </c>
-      <c r="C15" s="40" t="n">
+      <c r="C15" s="38" t="n">
         <f aca="false">B15+5</f>
         <v>45339</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="n">
+      <c r="A16" s="63" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="40" t="n">
+      <c r="B16" s="38" t="n">
         <f aca="false">B15+7</f>
         <v>45341</v>
       </c>
-      <c r="C16" s="40" t="n">
+      <c r="C16" s="38" t="n">
         <f aca="false">B16+5</f>
         <v>45346</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="n">
+      <c r="A17" s="63" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="40" t="n">
+      <c r="B17" s="38" t="n">
         <f aca="false">B16+7</f>
         <v>45348</v>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="38" t="n">
         <f aca="false">B17+5</f>
         <v>45353</v>
       </c>
-      <c r="D17" s="62"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="n">
+      <c r="A18" s="63" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="40" t="n">
+      <c r="B18" s="38" t="n">
         <f aca="false">B17+7</f>
         <v>45355</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="38" t="n">
         <f aca="false">B18+5</f>
         <v>45360</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="F18" s="61" t="s">
+      <c r="D18" s="60"/>
+      <c r="F18" s="59" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="n">
+      <c r="A19" s="63" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="38" t="n">
         <f aca="false">B18+7</f>
         <v>45362</v>
       </c>
-      <c r="C19" s="40" t="n">
+      <c r="C19" s="38" t="n">
         <f aca="false">B19+5</f>
         <v>45367</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="65" t="n">
+      <c r="A20" s="63" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="38" t="n">
         <f aca="false">B19+7</f>
         <v>45369</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="38" t="n">
         <f aca="false">B20+5</f>
         <v>45374</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="65" t="n">
+      <c r="A21" s="63" t="n">
         <v>12</v>
       </c>
-      <c r="B21" s="40" t="n">
+      <c r="B21" s="38" t="n">
         <f aca="false">B20+7</f>
         <v>45376</v>
       </c>
-      <c r="C21" s="40" t="n">
+      <c r="C21" s="38" t="n">
         <f aca="false">B21+5</f>
         <v>45381</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="n">
+      <c r="A22" s="63" t="n">
         <v>13</v>
       </c>
-      <c r="B22" s="40" t="n">
+      <c r="B22" s="38" t="n">
         <f aca="false">B21+7</f>
         <v>45383</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="38" t="n">
         <f aca="false">B22+5</f>
         <v>45388</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="65" t="n">
+      <c r="A23" s="63" t="n">
         <v>14</v>
       </c>
-      <c r="B23" s="40" t="n">
+      <c r="B23" s="38" t="n">
         <f aca="false">B22+7</f>
         <v>45390</v>
       </c>
-      <c r="C23" s="40" t="n">
+      <c r="C23" s="38" t="n">
         <f aca="false">B23+5</f>
         <v>45395</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="n">
+      <c r="A24" s="63" t="n">
         <v>15</v>
       </c>
-      <c r="B24" s="40" t="n">
+      <c r="B24" s="38" t="n">
         <f aca="false">B23+7</f>
         <v>45397</v>
       </c>
-      <c r="C24" s="40" t="n">
+      <c r="C24" s="38" t="n">
         <f aca="false">B24+5</f>
         <v>45402</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="n">
+      <c r="A25" s="63" t="n">
         <v>16</v>
       </c>
-      <c r="B25" s="40" t="n">
+      <c r="B25" s="38" t="n">
         <f aca="false">B24+7</f>
         <v>45404</v>
       </c>
-      <c r="C25" s="40" t="n">
+      <c r="C25" s="38" t="n">
         <f aca="false">B25+5</f>
         <v>45409</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="60"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="65" t="n">
+      <c r="A26" s="63" t="n">
         <v>17</v>
       </c>
-      <c r="B26" s="40" t="n">
+      <c r="B26" s="38" t="n">
         <f aca="false">B25+7</f>
         <v>45411</v>
       </c>
-      <c r="C26" s="40" t="n">
+      <c r="C26" s="38" t="n">
         <f aca="false">B26+5</f>
         <v>45416</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="65" t="n">
+      <c r="A27" s="63" t="n">
         <v>18</v>
       </c>
-      <c r="B27" s="40" t="n">
+      <c r="B27" s="38" t="n">
         <f aca="false">B26+7</f>
         <v>45418</v>
       </c>
-      <c r="C27" s="40" t="n">
+      <c r="C27" s="38" t="n">
         <f aca="false">B27+5</f>
         <v>45423</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="F27" s="61" t="s">
+      <c r="D27" s="60"/>
+      <c r="F27" s="59" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="65" t="n">
+      <c r="A28" s="63" t="n">
         <v>19</v>
       </c>
-      <c r="B28" s="40" t="n">
+      <c r="B28" s="38" t="n">
         <f aca="false">B27+7</f>
         <v>45425</v>
       </c>
-      <c r="C28" s="40" t="n">
+      <c r="C28" s="38" t="n">
         <f aca="false">B28+5</f>
         <v>45430</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="60"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
